--- a/raw_data/20200818_saline/20200818_Sensor1_Test_58.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_58.xlsx
@@ -1,523 +1,939 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61127208-19D9-46B0-8E2C-9EED0CE8C5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>51486.630555</v>
+        <v>51486.630555000003</v>
       </c>
       <c r="B2" s="1">
-        <v>14.301842</v>
+        <v>14.301842000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>896.210000</v>
+        <v>896.21</v>
       </c>
       <c r="D2" s="1">
-        <v>-181.049000</v>
+        <v>-181.04900000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>51497.044584</v>
+        <v>51497.044584000003</v>
       </c>
       <c r="G2" s="1">
-        <v>14.304735</v>
+        <v>14.304735000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>912.661000</v>
+        <v>912.66099999999994</v>
       </c>
       <c r="I2" s="1">
-        <v>-156.069000</v>
+        <v>-156.06899999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>51507.529978</v>
+        <v>51507.529977999999</v>
       </c>
       <c r="L2" s="1">
-        <v>14.307647</v>
+        <v>14.307646999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>935.922000</v>
+        <v>935.92200000000003</v>
       </c>
       <c r="N2" s="1">
-        <v>-114.641000</v>
+        <v>-114.64100000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>51518.356195</v>
@@ -526,240 +942,240 @@
         <v>14.310654</v>
       </c>
       <c r="R2" s="1">
-        <v>943.586000</v>
+        <v>943.58600000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-100.350000</v>
+        <v>-100.35</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>51528.998851</v>
+        <v>51528.998850999997</v>
       </c>
       <c r="V2" s="1">
         <v>14.313611</v>
       </c>
       <c r="W2" s="1">
-        <v>951.218000</v>
+        <v>951.21799999999996</v>
       </c>
       <c r="X2" s="1">
-        <v>-86.943900</v>
+        <v>-86.943899999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>51539.168320</v>
+        <v>51539.168319999997</v>
       </c>
       <c r="AA2" s="1">
-        <v>14.316436</v>
+        <v>14.316435999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>959.595000</v>
+        <v>959.59500000000003</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.604600</v>
+        <v>-76.604600000000005</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>51549.375957</v>
+        <v>51549.375956999997</v>
       </c>
       <c r="AF2" s="1">
-        <v>14.319271</v>
+        <v>14.319271000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>964.812000</v>
+        <v>964.81200000000001</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.763500</v>
+        <v>-74.763499999999993</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>51559.482438</v>
+        <v>51559.482437999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>14.322078</v>
+        <v>14.322077999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>972.468000</v>
+        <v>972.46799999999996</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.784100</v>
+        <v>-79.784099999999995</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>51569.390553</v>
+        <v>51569.390552999997</v>
       </c>
       <c r="AP2" s="1">
         <v>14.324831</v>
       </c>
       <c r="AQ2" s="1">
-        <v>980.779000</v>
+        <v>980.779</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.498700</v>
+        <v>-91.498699999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>51580.358090</v>
+        <v>51580.358090000002</v>
       </c>
       <c r="AU2" s="1">
-        <v>14.327877</v>
+        <v>14.327877000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>990.797000</v>
+        <v>990.79700000000003</v>
       </c>
       <c r="AW2" s="1">
-        <v>-109.328000</v>
+        <v>-109.328</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>51591.475389</v>
+        <v>51591.475388999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>14.330965</v>
+        <v>14.330965000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>999.132000</v>
+        <v>999.13199999999995</v>
       </c>
       <c r="BB2" s="1">
-        <v>-125.028000</v>
+        <v>-125.02800000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>51602.150021</v>
+        <v>51602.150021000001</v>
       </c>
       <c r="BE2" s="1">
         <v>14.333931</v>
       </c>
       <c r="BF2" s="1">
-        <v>1038.170000</v>
+        <v>1038.17</v>
       </c>
       <c r="BG2" s="1">
-        <v>-197.186000</v>
+        <v>-197.18600000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>51613.142127</v>
+        <v>51613.142126999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>14.336984</v>
+        <v>14.336983999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1105.320000</v>
+        <v>1105.32</v>
       </c>
       <c r="BL2" s="1">
-        <v>-314.004000</v>
+        <v>-314.00400000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>51624.195508</v>
+        <v>51624.195507999997</v>
       </c>
       <c r="BO2" s="1">
         <v>14.340054</v>
       </c>
       <c r="BP2" s="1">
-        <v>1214.040000</v>
+        <v>1214.04</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-497.771000</v>
+        <v>-497.77100000000002</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>51634.960673</v>
+        <v>51634.960673000001</v>
       </c>
       <c r="BT2" s="1">
         <v>14.343045</v>
       </c>
       <c r="BU2" s="1">
-        <v>1336.210000</v>
+        <v>1336.21</v>
       </c>
       <c r="BV2" s="1">
-        <v>-699.612000</v>
+        <v>-699.61199999999997</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>51645.641492</v>
+        <v>51645.641492000002</v>
       </c>
       <c r="BY2" s="1">
         <v>14.346012</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1472.670000</v>
+        <v>1472.67</v>
       </c>
       <c r="CA2" s="1">
-        <v>-914.077000</v>
+        <v>-914.077</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>51656.815898</v>
+        <v>51656.815898000001</v>
       </c>
       <c r="CD2" s="1">
         <v>14.349116</v>
       </c>
       <c r="CE2" s="1">
-        <v>1830.450000</v>
+        <v>1830.45</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1422.190000</v>
+        <v>-1422.19</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>51487.019911</v>
+        <v>51487.019911000003</v>
       </c>
       <c r="B3" s="1">
-        <v>14.301950</v>
+        <v>14.30195</v>
       </c>
       <c r="C3" s="1">
-        <v>896.275000</v>
+        <v>896.27499999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>-180.901000</v>
+        <v>-180.90100000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>51497.716633</v>
+        <v>51497.716633000004</v>
       </c>
       <c r="G3" s="1">
         <v>14.304921</v>
       </c>
       <c r="H3" s="1">
-        <v>912.997000</v>
+        <v>912.99699999999996</v>
       </c>
       <c r="I3" s="1">
-        <v>-155.554000</v>
+        <v>-155.554</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>51508.218923</v>
@@ -768,1116 +1184,1116 @@
         <v>14.307839</v>
       </c>
       <c r="M3" s="1">
-        <v>935.959000</v>
+        <v>935.95899999999995</v>
       </c>
       <c r="N3" s="1">
-        <v>-114.663000</v>
+        <v>-114.663</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>51518.780235</v>
+        <v>51518.780234999998</v>
       </c>
       <c r="Q3" s="1">
         <v>14.310772</v>
       </c>
       <c r="R3" s="1">
-        <v>943.592000</v>
+        <v>943.59199999999998</v>
       </c>
       <c r="S3" s="1">
-        <v>-100.393000</v>
+        <v>-100.393</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>51529.354941</v>
+        <v>51529.354940999998</v>
       </c>
       <c r="V3" s="1">
-        <v>14.313710</v>
+        <v>14.31371</v>
       </c>
       <c r="W3" s="1">
-        <v>951.261000</v>
+        <v>951.26099999999997</v>
       </c>
       <c r="X3" s="1">
-        <v>-86.946200</v>
+        <v>-86.946200000000005</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>51539.519986</v>
+        <v>51539.519985999999</v>
       </c>
       <c r="AA3" s="1">
         <v>14.316533</v>
       </c>
       <c r="AB3" s="1">
-        <v>959.604000</v>
+        <v>959.60400000000004</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.634100</v>
+        <v>-76.634100000000004</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>51549.754902</v>
+        <v>51549.754902000001</v>
       </c>
       <c r="AF3" s="1">
         <v>14.319376</v>
       </c>
       <c r="AG3" s="1">
-        <v>964.771000</v>
+        <v>964.77099999999996</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.723400</v>
+        <v>-74.723399999999998</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>51559.865381</v>
+        <v>51559.865381000003</v>
       </c>
       <c r="AK3" s="1">
-        <v>14.322185</v>
+        <v>14.322184999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>972.516000</v>
+        <v>972.51599999999996</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.770400</v>
+        <v>-79.770399999999995</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>51569.811641</v>
       </c>
       <c r="AP3" s="1">
-        <v>14.324948</v>
+        <v>14.324947999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>980.815000</v>
+        <v>980.81500000000005</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.508100</v>
+        <v>-91.508099999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>51580.773707</v>
       </c>
       <c r="AU3" s="1">
-        <v>14.327993</v>
+        <v>14.327992999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>990.823000</v>
+        <v>990.82299999999998</v>
       </c>
       <c r="AW3" s="1">
-        <v>-109.331000</v>
+        <v>-109.331</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>51591.908891</v>
+        <v>51591.908890999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>14.331086</v>
+        <v>14.331086000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>999.140000</v>
+        <v>999.14</v>
       </c>
       <c r="BB3" s="1">
-        <v>-125.034000</v>
+        <v>-125.03400000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>51602.514380</v>
+        <v>51602.514380000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>14.334032</v>
+        <v>14.334032000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1038.160000</v>
+        <v>1038.1600000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-197.204000</v>
+        <v>-197.20400000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>51613.519614</v>
+        <v>51613.519613999997</v>
       </c>
       <c r="BJ3" s="1">
-        <v>14.337089</v>
+        <v>14.337089000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1105.300000</v>
+        <v>1105.3</v>
       </c>
       <c r="BL3" s="1">
-        <v>-314.001000</v>
+        <v>-314.00099999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>51624.622064</v>
+        <v>51624.622064000003</v>
       </c>
       <c r="BO3" s="1">
         <v>14.340173</v>
       </c>
       <c r="BP3" s="1">
-        <v>1214.050000</v>
+        <v>1214.05</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-497.839000</v>
+        <v>-497.839</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>51635.397650</v>
+        <v>51635.397649999999</v>
       </c>
       <c r="BT3" s="1">
         <v>14.343166</v>
       </c>
       <c r="BU3" s="1">
-        <v>1336.210000</v>
+        <v>1336.21</v>
       </c>
       <c r="BV3" s="1">
-        <v>-699.756000</v>
+        <v>-699.75599999999997</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>51646.114711</v>
+        <v>51646.114711000002</v>
       </c>
       <c r="BY3" s="1">
         <v>14.346143</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1472.650000</v>
+        <v>1472.65</v>
       </c>
       <c r="CA3" s="1">
-        <v>-913.904000</v>
+        <v>-913.904</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>51657.359478</v>
+        <v>51657.359477999998</v>
       </c>
       <c r="CD3" s="1">
-        <v>14.349267</v>
+        <v>14.349266999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1829.720000</v>
+        <v>1829.72</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1424.150000</v>
+        <v>-1424.15</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>51487.686037</v>
+        <v>51487.686036999999</v>
       </c>
       <c r="B4" s="1">
         <v>14.302135</v>
       </c>
       <c r="C4" s="1">
-        <v>896.241000</v>
+        <v>896.24099999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-180.964000</v>
+        <v>-180.964</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>51498.106519</v>
+        <v>51498.106519000001</v>
       </c>
       <c r="G4" s="1">
-        <v>14.305030</v>
+        <v>14.30503</v>
       </c>
       <c r="H4" s="1">
-        <v>912.466000</v>
+        <v>912.46600000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-156.080000</v>
+        <v>-156.08000000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>51508.601371</v>
+        <v>51508.601370999997</v>
       </c>
       <c r="L4" s="1">
         <v>14.307945</v>
       </c>
       <c r="M4" s="1">
-        <v>936.040000</v>
+        <v>936.04</v>
       </c>
       <c r="N4" s="1">
-        <v>-114.581000</v>
+        <v>-114.581</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>51519.127933</v>
+        <v>51519.127933000003</v>
       </c>
       <c r="Q4" s="1">
         <v>14.310869</v>
       </c>
       <c r="R4" s="1">
-        <v>943.592000</v>
+        <v>943.59199999999998</v>
       </c>
       <c r="S4" s="1">
-        <v>-100.451000</v>
+        <v>-100.45099999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>51529.703133</v>
+        <v>51529.703133000003</v>
       </c>
       <c r="V4" s="1">
         <v>14.313806</v>
       </c>
       <c r="W4" s="1">
-        <v>951.137000</v>
+        <v>951.13699999999994</v>
       </c>
       <c r="X4" s="1">
-        <v>-86.932700</v>
+        <v>-86.932699999999997</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>51539.866657</v>
+        <v>51539.866656999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>14.316630</v>
+        <v>14.31663</v>
       </c>
       <c r="AB4" s="1">
-        <v>959.607000</v>
+        <v>959.60699999999997</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.618100</v>
+        <v>-76.618099999999998</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>51550.179970</v>
+        <v>51550.179969999997</v>
       </c>
       <c r="AF4" s="1">
-        <v>14.319494</v>
+        <v>14.319494000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>964.737000</v>
+        <v>964.73699999999997</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.735400</v>
+        <v>-74.735399999999998</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>51560.305829</v>
+        <v>51560.305828999997</v>
       </c>
       <c r="AK4" s="1">
         <v>14.322307</v>
       </c>
       <c r="AL4" s="1">
-        <v>972.490000</v>
+        <v>972.49</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.767500</v>
+        <v>-79.767499999999998</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>51570.153863</v>
       </c>
       <c r="AP4" s="1">
-        <v>14.325043</v>
+        <v>14.325043000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>980.797000</v>
+        <v>980.79700000000003</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.519600</v>
+        <v>-91.519599999999997</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>51581.139295</v>
+        <v>51581.139295000001</v>
       </c>
       <c r="AU4" s="1">
         <v>14.328094</v>
       </c>
       <c r="AV4" s="1">
-        <v>990.782000</v>
+        <v>990.78200000000004</v>
       </c>
       <c r="AW4" s="1">
-        <v>-109.317000</v>
+        <v>-109.31699999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>51592.266043</v>
+        <v>51592.266043000003</v>
       </c>
       <c r="AZ4" s="1">
         <v>14.331185</v>
       </c>
       <c r="BA4" s="1">
-        <v>999.141000</v>
+        <v>999.14099999999996</v>
       </c>
       <c r="BB4" s="1">
-        <v>-125.022000</v>
+        <v>-125.02200000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>51602.875437</v>
+        <v>51602.875437000002</v>
       </c>
       <c r="BE4" s="1">
         <v>14.334132</v>
       </c>
       <c r="BF4" s="1">
-        <v>1038.150000</v>
+        <v>1038.1500000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-197.193000</v>
+        <v>-197.19300000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>51613.899022</v>
+        <v>51613.899021999998</v>
       </c>
       <c r="BJ4" s="1">
         <v>14.337194</v>
       </c>
       <c r="BK4" s="1">
-        <v>1105.300000</v>
+        <v>1105.3</v>
       </c>
       <c r="BL4" s="1">
-        <v>-314.022000</v>
+        <v>-314.02199999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>51625.045119</v>
+        <v>51625.045119000002</v>
       </c>
       <c r="BO4" s="1">
-        <v>14.340290</v>
+        <v>14.34029</v>
       </c>
       <c r="BP4" s="1">
-        <v>1214.070000</v>
+        <v>1214.07</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-497.831000</v>
+        <v>-497.83100000000002</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>51635.828641</v>
       </c>
       <c r="BT4" s="1">
-        <v>14.343286</v>
+        <v>14.343286000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1336.240000</v>
+        <v>1336.24</v>
       </c>
       <c r="BV4" s="1">
-        <v>-699.680000</v>
+        <v>-699.68</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>51646.545988</v>
+        <v>51646.545987999998</v>
       </c>
       <c r="BY4" s="1">
         <v>14.346263</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1472.680000</v>
+        <v>1472.68</v>
       </c>
       <c r="CA4" s="1">
-        <v>-913.989000</v>
+        <v>-913.98900000000003</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>51657.902101</v>
       </c>
       <c r="CD4" s="1">
-        <v>14.349417</v>
+        <v>14.349417000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1831.080000</v>
+        <v>1831.08</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1422.990000</v>
+        <v>-1422.99</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>51488.046132</v>
+        <v>51488.046132000003</v>
       </c>
       <c r="B5" s="1">
         <v>14.302235</v>
       </c>
       <c r="C5" s="1">
-        <v>896.426000</v>
+        <v>896.42600000000004</v>
       </c>
       <c r="D5" s="1">
-        <v>-180.951000</v>
+        <v>-180.95099999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>51498.457190</v>
+        <v>51498.457190000001</v>
       </c>
       <c r="G5" s="1">
-        <v>14.305127</v>
+        <v>14.305127000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>912.772000</v>
+        <v>912.77200000000005</v>
       </c>
       <c r="I5" s="1">
-        <v>-156.244000</v>
+        <v>-156.244</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>51508.944072</v>
+        <v>51508.944071999998</v>
       </c>
       <c r="L5" s="1">
-        <v>14.308040</v>
+        <v>14.30804</v>
       </c>
       <c r="M5" s="1">
-        <v>936.124000</v>
+        <v>936.12400000000002</v>
       </c>
       <c r="N5" s="1">
-        <v>-114.614000</v>
+        <v>-114.614</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>51519.477114</v>
+        <v>51519.477114000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>14.310966</v>
+        <v>14.310966000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>943.576000</v>
+        <v>943.57600000000002</v>
       </c>
       <c r="S5" s="1">
-        <v>-100.408000</v>
+        <v>-100.408</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>51530.124748</v>
+        <v>51530.124748000002</v>
       </c>
       <c r="V5" s="1">
         <v>14.313924</v>
       </c>
       <c r="W5" s="1">
-        <v>951.238000</v>
+        <v>951.23800000000006</v>
       </c>
       <c r="X5" s="1">
-        <v>-86.873100</v>
+        <v>-86.873099999999994</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>51540.288959</v>
+        <v>51540.288958999998</v>
       </c>
       <c r="AA5" s="1">
-        <v>14.316747</v>
+        <v>14.316746999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>959.635000</v>
+        <v>959.63499999999999</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.567200</v>
+        <v>-76.5672</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>51550.444338</v>
+        <v>51550.444338000001</v>
       </c>
       <c r="AF5" s="1">
         <v>14.319568</v>
       </c>
       <c r="AG5" s="1">
-        <v>964.858000</v>
+        <v>964.85799999999995</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.730100</v>
+        <v>-74.730099999999993</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>51560.583591</v>
+        <v>51560.583591000002</v>
       </c>
       <c r="AK5" s="1">
         <v>14.322384</v>
       </c>
       <c r="AL5" s="1">
-        <v>972.476000</v>
+        <v>972.476</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.771000</v>
+        <v>-79.771000000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>51570.511480</v>
+        <v>51570.511480000001</v>
       </c>
       <c r="AP5" s="1">
         <v>14.325142</v>
       </c>
       <c r="AQ5" s="1">
-        <v>980.809000</v>
+        <v>980.80899999999997</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.505300</v>
+        <v>-91.505300000000005</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>51581.504314</v>
+        <v>51581.504313999998</v>
       </c>
       <c r="AU5" s="1">
         <v>14.328196</v>
       </c>
       <c r="AV5" s="1">
-        <v>990.813000</v>
+        <v>990.81299999999999</v>
       </c>
       <c r="AW5" s="1">
-        <v>-109.308000</v>
+        <v>-109.30800000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>51592.625151</v>
       </c>
       <c r="AZ5" s="1">
-        <v>14.331285</v>
+        <v>14.331284999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>999.159000</v>
+        <v>999.15899999999999</v>
       </c>
       <c r="BB5" s="1">
-        <v>-125.016000</v>
+        <v>-125.01600000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>51603.601083</v>
+        <v>51603.601083000001</v>
       </c>
       <c r="BE5" s="1">
         <v>14.334334</v>
       </c>
       <c r="BF5" s="1">
-        <v>1038.160000</v>
+        <v>1038.1600000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-197.213000</v>
+        <v>-197.21299999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>51614.690637</v>
       </c>
       <c r="BJ5" s="1">
-        <v>14.337414</v>
+        <v>14.337414000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1105.320000</v>
+        <v>1105.32</v>
       </c>
       <c r="BL5" s="1">
-        <v>-314.026000</v>
+        <v>-314.02600000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>51625.438447</v>
       </c>
       <c r="BO5" s="1">
-        <v>14.340400</v>
+        <v>14.340400000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1214.050000</v>
+        <v>1214.05</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-497.839000</v>
+        <v>-497.839</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>51636.238864</v>
+        <v>51636.238863999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>14.343400</v>
+        <v>14.343400000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1336.270000</v>
+        <v>1336.27</v>
       </c>
       <c r="BV5" s="1">
-        <v>-699.728000</v>
+        <v>-699.72799999999995</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>51646.966803</v>
+        <v>51646.966803000003</v>
       </c>
       <c r="BY5" s="1">
-        <v>14.346380</v>
+        <v>14.34638</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1472.610000</v>
+        <v>1472.61</v>
       </c>
       <c r="CA5" s="1">
-        <v>-913.969000</v>
+        <v>-913.96900000000005</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>51658.748770</v>
+        <v>51658.748769999998</v>
       </c>
       <c r="CD5" s="1">
-        <v>14.349652</v>
+        <v>14.349652000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1830.240000</v>
+        <v>1830.24</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1424.090000</v>
+        <v>-1424.09</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>51488.383907</v>
+        <v>51488.383907000003</v>
       </c>
       <c r="B6" s="1">
         <v>14.302329</v>
       </c>
       <c r="C6" s="1">
-        <v>896.461000</v>
+        <v>896.46100000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-180.772000</v>
+        <v>-180.77199999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>51498.801382</v>
+        <v>51498.801381999998</v>
       </c>
       <c r="G6" s="1">
         <v>14.305223</v>
       </c>
       <c r="H6" s="1">
-        <v>912.452000</v>
+        <v>912.452</v>
       </c>
       <c r="I6" s="1">
-        <v>-155.615000</v>
+        <v>-155.61500000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>51509.291770</v>
+        <v>51509.291770000003</v>
       </c>
       <c r="L6" s="1">
         <v>14.308137</v>
       </c>
       <c r="M6" s="1">
-        <v>935.902000</v>
+        <v>935.90200000000004</v>
       </c>
       <c r="N6" s="1">
-        <v>-114.543000</v>
+        <v>-114.54300000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>51519.898218</v>
+        <v>51519.898218000002</v>
       </c>
       <c r="Q6" s="1">
         <v>14.311083</v>
       </c>
       <c r="R6" s="1">
-        <v>943.554000</v>
+        <v>943.55399999999997</v>
       </c>
       <c r="S6" s="1">
-        <v>-100.394000</v>
+        <v>-100.39400000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>51530.405506</v>
+        <v>51530.405506000003</v>
       </c>
       <c r="V6" s="1">
         <v>14.314002</v>
       </c>
       <c r="W6" s="1">
-        <v>951.194000</v>
+        <v>951.19399999999996</v>
       </c>
       <c r="X6" s="1">
-        <v>-86.954400</v>
+        <v>-86.954400000000007</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>51540.564559</v>
+        <v>51540.564558999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>14.316823</v>
+        <v>14.316822999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>959.608000</v>
+        <v>959.60799999999995</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.497600</v>
+        <v>-76.497600000000006</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>51550.786113</v>
+        <v>51550.786113000002</v>
       </c>
       <c r="AF6" s="1">
         <v>14.319663</v>
       </c>
       <c r="AG6" s="1">
-        <v>964.795000</v>
+        <v>964.79499999999996</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.781900</v>
+        <v>-74.781899999999993</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>51560.933732</v>
+        <v>51560.933731999998</v>
       </c>
       <c r="AK6" s="1">
-        <v>14.322482</v>
+        <v>14.322482000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>972.479000</v>
+        <v>972.47900000000004</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.774300</v>
+        <v>-79.774299999999997</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>51570.871606</v>
+        <v>51570.871606000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>14.325242</v>
+        <v>14.325241999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>980.795000</v>
+        <v>980.79499999999996</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.500800</v>
+        <v>-91.500799999999998</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>51582.233431</v>
+        <v>51582.233431000001</v>
       </c>
       <c r="AU6" s="1">
         <v>14.328398</v>
       </c>
       <c r="AV6" s="1">
-        <v>990.794000</v>
+        <v>990.79399999999998</v>
       </c>
       <c r="AW6" s="1">
-        <v>-109.306000</v>
+        <v>-109.306</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>51593.344810</v>
+        <v>51593.344810000002</v>
       </c>
       <c r="AZ6" s="1">
-        <v>14.331485</v>
+        <v>14.331485000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>999.164000</v>
+        <v>999.16399999999999</v>
       </c>
       <c r="BB6" s="1">
-        <v>-125.018000</v>
+        <v>-125.018</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>51603.976587</v>
+        <v>51603.976586999997</v>
       </c>
       <c r="BE6" s="1">
         <v>14.334438</v>
       </c>
       <c r="BF6" s="1">
-        <v>1038.160000</v>
+        <v>1038.1600000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-197.196000</v>
+        <v>-197.196</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>51615.038829</v>
+        <v>51615.038828999997</v>
       </c>
       <c r="BJ6" s="1">
-        <v>14.337511</v>
+        <v>14.337510999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1105.250000</v>
+        <v>1105.25</v>
       </c>
       <c r="BL6" s="1">
-        <v>-313.978000</v>
+        <v>-313.97800000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>51625.861038</v>
+        <v>51625.861038000003</v>
       </c>
       <c r="BO6" s="1">
         <v>14.340517</v>
       </c>
       <c r="BP6" s="1">
-        <v>1214.050000</v>
+        <v>1214.05</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-497.804000</v>
+        <v>-497.80399999999997</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>51636.977409</v>
+        <v>51636.977408999999</v>
       </c>
       <c r="BT6" s="1">
         <v>14.343605</v>
       </c>
       <c r="BU6" s="1">
-        <v>1336.270000</v>
+        <v>1336.27</v>
       </c>
       <c r="BV6" s="1">
-        <v>-699.646000</v>
+        <v>-699.64599999999996</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>51647.692945</v>
+        <v>51647.692945000003</v>
       </c>
       <c r="BY6" s="1">
         <v>14.346581</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1472.780000</v>
+        <v>1472.78</v>
       </c>
       <c r="CA6" s="1">
-        <v>-914.011000</v>
+        <v>-914.01099999999997</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>51658.978245</v>
+        <v>51658.978244999998</v>
       </c>
       <c r="CD6" s="1">
-        <v>14.349716</v>
+        <v>14.349716000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>1830.090000</v>
+        <v>1830.09</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1424.370000</v>
+        <v>-1424.37</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>51488.725651</v>
+        <v>51488.725651000001</v>
       </c>
       <c r="B7" s="1">
         <v>14.302424</v>
       </c>
       <c r="C7" s="1">
-        <v>896.321000</v>
+        <v>896.32100000000003</v>
       </c>
       <c r="D7" s="1">
-        <v>-180.745000</v>
+        <v>-180.745</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>51499.221495</v>
+        <v>51499.221494999998</v>
       </c>
       <c r="G7" s="1">
         <v>14.305339</v>
       </c>
       <c r="H7" s="1">
-        <v>912.122000</v>
+        <v>912.12199999999996</v>
       </c>
       <c r="I7" s="1">
-        <v>-155.605000</v>
+        <v>-155.60499999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>51509.716343</v>
       </c>
       <c r="L7" s="1">
-        <v>14.308255</v>
+        <v>14.308255000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>936.069000</v>
+        <v>936.06899999999996</v>
       </c>
       <c r="N7" s="1">
-        <v>-114.473000</v>
+        <v>-114.473</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>51520.174026</v>
+        <v>51520.174026000001</v>
       </c>
       <c r="Q7" s="1">
         <v>14.311159</v>
       </c>
       <c r="R7" s="1">
-        <v>943.549000</v>
+        <v>943.54899999999998</v>
       </c>
       <c r="S7" s="1">
-        <v>-100.379000</v>
+        <v>-100.379</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>51530.748205</v>
+        <v>51530.748205000004</v>
       </c>
       <c r="V7" s="1">
         <v>14.314097</v>
       </c>
       <c r="W7" s="1">
-        <v>951.212000</v>
+        <v>951.21199999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-86.949400</v>
+        <v>-86.949399999999997</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>51540.913742</v>
+        <v>51540.913741999997</v>
       </c>
       <c r="AA7" s="1">
-        <v>14.316920</v>
+        <v>14.31692</v>
       </c>
       <c r="AB7" s="1">
-        <v>959.531000</v>
+        <v>959.53099999999995</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.555100</v>
+        <v>-76.555099999999996</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>51551.128817</v>
+        <v>51551.128816999997</v>
       </c>
       <c r="AF7" s="1">
         <v>14.319758</v>
       </c>
       <c r="AG7" s="1">
-        <v>964.700000</v>
+        <v>964.7</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.854600</v>
+        <v>-74.854600000000005</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>51561.281923</v>
+        <v>51561.281923000002</v>
       </c>
       <c r="AK7" s="1">
         <v>14.322578</v>
       </c>
       <c r="AL7" s="1">
-        <v>972.475000</v>
+        <v>972.47500000000002</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.781700</v>
+        <v>-79.781700000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>51571.587798</v>
@@ -1886,73 +2302,73 @@
         <v>14.325441</v>
       </c>
       <c r="AQ7" s="1">
-        <v>980.809000</v>
+        <v>980.80899999999997</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.492500</v>
+        <v>-91.492500000000007</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>51582.618443</v>
+        <v>51582.618442999999</v>
       </c>
       <c r="AU7" s="1">
         <v>14.328505</v>
       </c>
       <c r="AV7" s="1">
-        <v>990.802000</v>
+        <v>990.80200000000002</v>
       </c>
       <c r="AW7" s="1">
-        <v>-109.293000</v>
+        <v>-109.29300000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>51593.730233</v>
+        <v>51593.730233000002</v>
       </c>
       <c r="AZ7" s="1">
-        <v>14.331592</v>
+        <v>14.331592000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>999.155000</v>
+        <v>999.15499999999997</v>
       </c>
       <c r="BB7" s="1">
-        <v>-125.025000</v>
+        <v>-125.02500000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>51604.340655</v>
       </c>
       <c r="BE7" s="1">
-        <v>14.334539</v>
+        <v>14.334538999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1038.160000</v>
+        <v>1038.1600000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-197.194000</v>
+        <v>-197.19399999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>51615.719341</v>
+        <v>51615.719341000004</v>
       </c>
       <c r="BJ7" s="1">
-        <v>14.337700</v>
+        <v>14.3377</v>
       </c>
       <c r="BK7" s="1">
-        <v>1105.290000</v>
+        <v>1105.29</v>
       </c>
       <c r="BL7" s="1">
-        <v>-314.026000</v>
+        <v>-314.02600000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>51626.569335</v>
@@ -1961,210 +2377,210 @@
         <v>14.340714</v>
       </c>
       <c r="BP7" s="1">
-        <v>1214.040000</v>
+        <v>1214.04</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-497.845000</v>
+        <v>-497.84500000000003</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>51637.096921</v>
+        <v>51637.096920999997</v>
       </c>
       <c r="BT7" s="1">
         <v>14.343638</v>
       </c>
       <c r="BU7" s="1">
-        <v>1336.310000</v>
+        <v>1336.31</v>
       </c>
       <c r="BV7" s="1">
-        <v>-699.666000</v>
+        <v>-699.66600000000005</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>51647.841745</v>
+        <v>51647.841744999998</v>
       </c>
       <c r="BY7" s="1">
-        <v>14.346623</v>
+        <v>14.346622999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1472.670000</v>
+        <v>1472.67</v>
       </c>
       <c r="CA7" s="1">
-        <v>-914.073000</v>
+        <v>-914.07299999999998</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>51659.499713</v>
+        <v>51659.499712999997</v>
       </c>
       <c r="CD7" s="1">
-        <v>14.349861</v>
+        <v>14.349861000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1831.070000</v>
+        <v>1831.07</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1423.420000</v>
+        <v>-1423.42</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>51489.162132</v>
+        <v>51489.162131999998</v>
       </c>
       <c r="B8" s="1">
         <v>14.302545</v>
       </c>
       <c r="C8" s="1">
-        <v>896.396000</v>
+        <v>896.39599999999996</v>
       </c>
       <c r="D8" s="1">
-        <v>-180.931000</v>
+        <v>-180.93100000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>51499.497305</v>
+        <v>51499.497304999997</v>
       </c>
       <c r="G8" s="1">
-        <v>14.305416</v>
+        <v>14.305415999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>912.189000</v>
+        <v>912.18899999999996</v>
       </c>
       <c r="I8" s="1">
-        <v>-155.752000</v>
+        <v>-155.75200000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>51510.005512</v>
+        <v>51510.005512000003</v>
       </c>
       <c r="L8" s="1">
         <v>14.308335</v>
       </c>
       <c r="M8" s="1">
-        <v>935.992000</v>
+        <v>935.99199999999996</v>
       </c>
       <c r="N8" s="1">
-        <v>-114.572000</v>
+        <v>-114.572</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>51520.522716</v>
+        <v>51520.522715999999</v>
       </c>
       <c r="Q8" s="1">
         <v>14.311256</v>
       </c>
       <c r="R8" s="1">
-        <v>943.575000</v>
+        <v>943.57500000000005</v>
       </c>
       <c r="S8" s="1">
-        <v>-100.360000</v>
+        <v>-100.36</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>51531.091435</v>
+        <v>51531.091435000002</v>
       </c>
       <c r="V8" s="1">
         <v>14.314192</v>
       </c>
       <c r="W8" s="1">
-        <v>951.264000</v>
+        <v>951.26400000000001</v>
       </c>
       <c r="X8" s="1">
-        <v>-86.865800</v>
+        <v>-86.865799999999993</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>51541.263917</v>
+        <v>51541.263916999997</v>
       </c>
       <c r="AA8" s="1">
-        <v>14.317018</v>
+        <v>14.317017999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>959.617000</v>
+        <v>959.61699999999996</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.533500</v>
+        <v>-76.533500000000004</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>51551.818753</v>
       </c>
       <c r="AF8" s="1">
-        <v>14.319950</v>
+        <v>14.31995</v>
       </c>
       <c r="AG8" s="1">
-        <v>964.958000</v>
+        <v>964.95799999999997</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.939200</v>
+        <v>-74.9392</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>51561.976859</v>
+        <v>51561.976859000002</v>
       </c>
       <c r="AK8" s="1">
-        <v>14.322771</v>
+        <v>14.322770999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>972.464000</v>
+        <v>972.46400000000006</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.757400</v>
+        <v>-79.757400000000004</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>51571.953845</v>
+        <v>51571.953844999996</v>
       </c>
       <c r="AP8" s="1">
         <v>14.325543</v>
       </c>
       <c r="AQ8" s="1">
-        <v>980.808000</v>
+        <v>980.80799999999999</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.517700</v>
+        <v>-91.517700000000005</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>51582.986855</v>
+        <v>51582.986855000003</v>
       </c>
       <c r="AU8" s="1">
         <v>14.328607</v>
       </c>
       <c r="AV8" s="1">
-        <v>990.824000</v>
+        <v>990.82399999999996</v>
       </c>
       <c r="AW8" s="1">
-        <v>-109.323000</v>
+        <v>-109.32299999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>51594.110664</v>
@@ -2173,165 +2589,165 @@
         <v>14.331697</v>
       </c>
       <c r="BA8" s="1">
-        <v>999.147000</v>
+        <v>999.14700000000005</v>
       </c>
       <c r="BB8" s="1">
-        <v>-125.043000</v>
+        <v>-125.04300000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>51605.013721</v>
+        <v>51605.013721000003</v>
       </c>
       <c r="BE8" s="1">
         <v>14.334726</v>
       </c>
       <c r="BF8" s="1">
-        <v>1038.160000</v>
+        <v>1038.1600000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-197.199000</v>
+        <v>-197.19900000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>51615.828459</v>
+        <v>51615.828458999997</v>
       </c>
       <c r="BJ8" s="1">
-        <v>14.337730</v>
+        <v>14.337730000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1105.290000</v>
+        <v>1105.29</v>
       </c>
       <c r="BL8" s="1">
-        <v>-314.004000</v>
+        <v>-314.00400000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>51626.677949</v>
+        <v>51626.677948999997</v>
       </c>
       <c r="BO8" s="1">
-        <v>14.340744</v>
+        <v>14.340744000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1214.030000</v>
+        <v>1214.03</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-497.844000</v>
+        <v>-497.84399999999999</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>51637.507598</v>
+        <v>51637.507597999997</v>
       </c>
       <c r="BT8" s="1">
         <v>14.343752</v>
       </c>
       <c r="BU8" s="1">
-        <v>1336.330000</v>
+        <v>1336.33</v>
       </c>
       <c r="BV8" s="1">
-        <v>-699.680000</v>
+        <v>-699.68</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>51648.258396</v>
+        <v>51648.258395999997</v>
       </c>
       <c r="BY8" s="1">
         <v>14.346738</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1472.700000</v>
+        <v>1472.7</v>
       </c>
       <c r="CA8" s="1">
-        <v>-914.086000</v>
+        <v>-914.08600000000001</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>51660.019026</v>
+        <v>51660.019026000002</v>
       </c>
       <c r="CD8" s="1">
-        <v>14.350005</v>
+        <v>14.350004999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1830.930000</v>
+        <v>1830.93</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1423.940000</v>
+        <v>-1423.94</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>51489.442372</v>
+        <v>51489.442371999998</v>
       </c>
       <c r="B9" s="1">
-        <v>14.302623</v>
+        <v>14.302623000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>896.321000</v>
+        <v>896.32100000000003</v>
       </c>
       <c r="D9" s="1">
-        <v>-181.002000</v>
+        <v>-181.00200000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>51499.842370</v>
+        <v>51499.842369999998</v>
       </c>
       <c r="G9" s="1">
         <v>14.305512</v>
       </c>
       <c r="H9" s="1">
-        <v>912.337000</v>
+        <v>912.33699999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-156.281000</v>
+        <v>-156.28100000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>51510.359159</v>
       </c>
       <c r="L9" s="1">
-        <v>14.308433</v>
+        <v>14.308433000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>935.957000</v>
+        <v>935.95699999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-114.651000</v>
+        <v>-114.651</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>51520.872856</v>
+        <v>51520.872856000002</v>
       </c>
       <c r="Q9" s="1">
         <v>14.311354</v>
       </c>
       <c r="R9" s="1">
-        <v>943.525000</v>
+        <v>943.52499999999998</v>
       </c>
       <c r="S9" s="1">
-        <v>-100.309000</v>
+        <v>-100.309</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>51531.780905</v>
@@ -2340,453 +2756,453 @@
         <v>14.314384</v>
       </c>
       <c r="W9" s="1">
-        <v>951.236000</v>
+        <v>951.23599999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-86.911300</v>
+        <v>-86.911299999999997</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>51541.959309</v>
+        <v>51541.959308999998</v>
       </c>
       <c r="AA9" s="1">
         <v>14.317211</v>
       </c>
       <c r="AB9" s="1">
-        <v>959.609000</v>
+        <v>959.60900000000004</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.637400</v>
+        <v>-76.6374</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>51552.161487</v>
+        <v>51552.161486999998</v>
       </c>
       <c r="AF9" s="1">
         <v>14.320045</v>
       </c>
       <c r="AG9" s="1">
-        <v>964.843000</v>
+        <v>964.84299999999996</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.908600</v>
+        <v>-74.908600000000007</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>51562.346861</v>
+        <v>51562.346860999998</v>
       </c>
       <c r="AK9" s="1">
-        <v>14.322874</v>
+        <v>14.322874000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>972.446000</v>
+        <v>972.44600000000003</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.742300</v>
+        <v>-79.7423</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>51572.311460</v>
+        <v>51572.311459999997</v>
       </c>
       <c r="AP9" s="1">
         <v>14.325642</v>
       </c>
       <c r="AQ9" s="1">
-        <v>980.806000</v>
+        <v>980.80600000000004</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.514300</v>
+        <v>-91.514300000000006</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>51583.671365</v>
+        <v>51583.671365000002</v>
       </c>
       <c r="AU9" s="1">
-        <v>14.328798</v>
+        <v>14.328798000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>990.820000</v>
+        <v>990.82</v>
       </c>
       <c r="AW9" s="1">
-        <v>-109.309000</v>
+        <v>-109.309</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>51594.768823</v>
+        <v>51594.768822999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>14.331880</v>
+        <v>14.33188</v>
       </c>
       <c r="BA9" s="1">
-        <v>999.144000</v>
+        <v>999.14400000000001</v>
       </c>
       <c r="BB9" s="1">
-        <v>-125.038000</v>
+        <v>-125.038</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>51605.456618</v>
+        <v>51605.456617999997</v>
       </c>
       <c r="BE9" s="1">
         <v>14.334849</v>
       </c>
       <c r="BF9" s="1">
-        <v>1038.160000</v>
+        <v>1038.1600000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-197.210000</v>
+        <v>-197.21</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>51616.193019</v>
+        <v>51616.193018999998</v>
       </c>
       <c r="BJ9" s="1">
         <v>14.337831</v>
       </c>
       <c r="BK9" s="1">
-        <v>1105.300000</v>
+        <v>1105.3</v>
       </c>
       <c r="BL9" s="1">
-        <v>-314.021000</v>
+        <v>-314.02100000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>51627.101534</v>
+        <v>51627.101534000001</v>
       </c>
       <c r="BO9" s="1">
         <v>14.340862</v>
       </c>
       <c r="BP9" s="1">
-        <v>1214.030000</v>
+        <v>1214.03</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-497.837000</v>
+        <v>-497.83699999999999</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>51637.940143</v>
       </c>
       <c r="BT9" s="1">
-        <v>14.343872</v>
+        <v>14.343871999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1336.390000</v>
+        <v>1336.39</v>
       </c>
       <c r="BV9" s="1">
-        <v>-699.664000</v>
+        <v>-699.66399999999999</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>51648.870944</v>
+        <v>51648.870944000002</v>
       </c>
       <c r="BY9" s="1">
         <v>14.346909</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1472.710000</v>
+        <v>1472.71</v>
       </c>
       <c r="CA9" s="1">
-        <v>-914.039000</v>
+        <v>-914.03899999999999</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>51660.569089</v>
+        <v>51660.569088999997</v>
       </c>
       <c r="CD9" s="1">
         <v>14.350158</v>
       </c>
       <c r="CE9" s="1">
-        <v>1830.520000</v>
+        <v>1830.52</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1424.160000</v>
+        <v>-1424.16</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>51489.786596</v>
+        <v>51489.786595999998</v>
       </c>
       <c r="B10" s="1">
         <v>14.302718</v>
       </c>
       <c r="C10" s="1">
-        <v>896.383000</v>
+        <v>896.38300000000004</v>
       </c>
       <c r="D10" s="1">
-        <v>-180.913000</v>
+        <v>-180.91300000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>51500.187736</v>
       </c>
       <c r="G10" s="1">
-        <v>14.305608</v>
+        <v>14.305607999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>912.187000</v>
+        <v>912.18700000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-155.830000</v>
+        <v>-155.83000000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>51510.708162</v>
+        <v>51510.708162000003</v>
       </c>
       <c r="L10" s="1">
-        <v>14.308530</v>
+        <v>14.308529999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>936.056000</v>
+        <v>936.05600000000004</v>
       </c>
       <c r="N10" s="1">
-        <v>-114.581000</v>
+        <v>-114.581</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>51521.570233</v>
+        <v>51521.570232999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>14.311547</v>
+        <v>14.311546999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>943.542000</v>
+        <v>943.54200000000003</v>
       </c>
       <c r="S10" s="1">
-        <v>-100.349000</v>
+        <v>-100.349</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>51532.122913</v>
+        <v>51532.122912999999</v>
       </c>
       <c r="V10" s="1">
         <v>14.314479</v>
       </c>
       <c r="W10" s="1">
-        <v>951.160000</v>
+        <v>951.16</v>
       </c>
       <c r="X10" s="1">
-        <v>-86.781700</v>
+        <v>-86.781700000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>51542.310446</v>
+        <v>51542.310446000003</v>
       </c>
       <c r="AA10" s="1">
-        <v>14.317308</v>
+        <v>14.317308000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>959.476000</v>
+        <v>959.476</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.582100</v>
+        <v>-76.582099999999997</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>51552.507696</v>
+        <v>51552.507696000001</v>
       </c>
       <c r="AF10" s="1">
         <v>14.320141</v>
       </c>
       <c r="AG10" s="1">
-        <v>964.885000</v>
+        <v>964.88499999999999</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.764600</v>
+        <v>-74.764600000000002</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>51562.688095</v>
+        <v>51562.688094999998</v>
       </c>
       <c r="AK10" s="1">
-        <v>14.322969</v>
+        <v>14.322969000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>972.459000</v>
+        <v>972.45899999999995</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.733600</v>
+        <v>-79.733599999999996</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>51572.980600</v>
+        <v>51572.980600000003</v>
       </c>
       <c r="AP10" s="1">
         <v>14.325828</v>
       </c>
       <c r="AQ10" s="1">
-        <v>980.792000</v>
+        <v>980.79200000000003</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.491700</v>
+        <v>-91.491699999999994</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>51584.113269</v>
+        <v>51584.113269000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>14.328920</v>
+        <v>14.32892</v>
       </c>
       <c r="AV10" s="1">
-        <v>990.815000</v>
+        <v>990.81500000000005</v>
       </c>
       <c r="AW10" s="1">
-        <v>-109.325000</v>
+        <v>-109.325</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>51595.192408</v>
+        <v>51595.192408000003</v>
       </c>
       <c r="AZ10" s="1">
         <v>14.331998</v>
       </c>
       <c r="BA10" s="1">
-        <v>999.155000</v>
+        <v>999.15499999999997</v>
       </c>
       <c r="BB10" s="1">
-        <v>-125.013000</v>
+        <v>-125.01300000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>51605.816216</v>
+        <v>51605.816215999999</v>
       </c>
       <c r="BE10" s="1">
         <v>14.334949</v>
       </c>
       <c r="BF10" s="1">
-        <v>1038.160000</v>
+        <v>1038.1600000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-197.194000</v>
+        <v>-197.19399999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>51616.569514</v>
+        <v>51616.569514000003</v>
       </c>
       <c r="BJ10" s="1">
-        <v>14.337936</v>
+        <v>14.337935999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1105.290000</v>
+        <v>1105.29</v>
       </c>
       <c r="BL10" s="1">
-        <v>-314.017000</v>
+        <v>-314.017</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>51627.498829</v>
+        <v>51627.498828999996</v>
       </c>
       <c r="BO10" s="1">
-        <v>14.340972</v>
+        <v>14.340972000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1214.050000</v>
+        <v>1214.05</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-497.889000</v>
+        <v>-497.88900000000001</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>51638.367167</v>
+        <v>51638.367166999997</v>
       </c>
       <c r="BT10" s="1">
-        <v>14.343991</v>
+        <v>14.343991000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1336.360000</v>
+        <v>1336.36</v>
       </c>
       <c r="BV10" s="1">
-        <v>-699.700000</v>
+        <v>-699.7</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>51649.146719</v>
+        <v>51649.146718999997</v>
       </c>
       <c r="BY10" s="1">
         <v>14.346985</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1472.690000</v>
+        <v>1472.69</v>
       </c>
       <c r="CA10" s="1">
-        <v>-914.083000</v>
+        <v>-914.08299999999997</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>51661.098351</v>
+        <v>51661.098351000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>14.350305</v>
+        <v>14.350305000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1831.080000</v>
+        <v>1831.08</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1423.290000</v>
+        <v>-1423.29</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>51490.125859</v>
       </c>
@@ -2794,193 +3210,193 @@
         <v>14.302813</v>
       </c>
       <c r="C11" s="1">
-        <v>896.274000</v>
+        <v>896.274</v>
       </c>
       <c r="D11" s="1">
-        <v>-181.008000</v>
+        <v>-181.00800000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>51500.880612</v>
+        <v>51500.880612000001</v>
       </c>
       <c r="G11" s="1">
-        <v>14.305800</v>
+        <v>14.3058</v>
       </c>
       <c r="H11" s="1">
-        <v>912.201000</v>
+        <v>912.20100000000002</v>
       </c>
       <c r="I11" s="1">
-        <v>-155.445000</v>
+        <v>-155.44499999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>51511.399269</v>
+        <v>51511.399269000001</v>
       </c>
       <c r="L11" s="1">
-        <v>14.308722</v>
+        <v>14.308721999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>936.031000</v>
+        <v>936.03099999999995</v>
       </c>
       <c r="N11" s="1">
-        <v>-114.651000</v>
+        <v>-114.651</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>51521.917957</v>
+        <v>51521.917956999998</v>
       </c>
       <c r="Q11" s="1">
-        <v>14.311644</v>
+        <v>14.311643999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>943.479000</v>
+        <v>943.47900000000004</v>
       </c>
       <c r="S11" s="1">
-        <v>-100.324000</v>
+        <v>-100.324</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>51532.464890</v>
+        <v>51532.464890000003</v>
       </c>
       <c r="V11" s="1">
         <v>14.314574</v>
       </c>
       <c r="W11" s="1">
-        <v>951.060000</v>
+        <v>951.06</v>
       </c>
       <c r="X11" s="1">
-        <v>-87.004300</v>
+        <v>-87.004300000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>51542.658140</v>
+        <v>51542.65814</v>
       </c>
       <c r="AA11" s="1">
-        <v>14.317405</v>
+        <v>14.317405000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>959.609000</v>
+        <v>959.60900000000004</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.554400</v>
+        <v>-76.554400000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>51553.162446</v>
+        <v>51553.162446000002</v>
       </c>
       <c r="AF11" s="1">
         <v>14.320323</v>
       </c>
       <c r="AG11" s="1">
-        <v>964.785000</v>
+        <v>964.78499999999997</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.765200</v>
+        <v>-74.765199999999993</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>51563.136962</v>
+        <v>51563.136961999997</v>
       </c>
       <c r="AK11" s="1">
-        <v>14.323094</v>
+        <v>14.323093999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>972.468000</v>
+        <v>972.46799999999996</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.768400</v>
+        <v>-79.7684</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>51573.424483</v>
+        <v>51573.424483000003</v>
       </c>
       <c r="AP11" s="1">
         <v>14.325951</v>
       </c>
       <c r="AQ11" s="1">
-        <v>980.780000</v>
+        <v>980.78</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.512900</v>
+        <v>-91.512900000000002</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>51584.475881</v>
+        <v>51584.475880999998</v>
       </c>
       <c r="AU11" s="1">
-        <v>14.329021</v>
+        <v>14.329020999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>990.817000</v>
+        <v>990.81700000000001</v>
       </c>
       <c r="AW11" s="1">
-        <v>-109.324000</v>
+        <v>-109.324</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>51595.568870</v>
+        <v>51595.568870000003</v>
       </c>
       <c r="AZ11" s="1">
-        <v>14.332102</v>
+        <v>14.332102000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>999.146000</v>
+        <v>999.14599999999996</v>
       </c>
       <c r="BB11" s="1">
-        <v>-125.011000</v>
+        <v>-125.011</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>51606.178792</v>
+        <v>51606.178791999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>14.335050</v>
+        <v>14.335050000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1038.170000</v>
+        <v>1038.17</v>
       </c>
       <c r="BG11" s="1">
-        <v>-197.198000</v>
+        <v>-197.19800000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>51616.997034</v>
       </c>
       <c r="BJ11" s="1">
-        <v>14.338055</v>
+        <v>14.338055000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1105.280000</v>
+        <v>1105.28</v>
       </c>
       <c r="BL11" s="1">
-        <v>-314.027000</v>
+        <v>-314.02699999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>51627.919963</v>
@@ -2989,120 +3405,120 @@
         <v>14.341089</v>
       </c>
       <c r="BP11" s="1">
-        <v>1214.040000</v>
+        <v>1214.04</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-497.806000</v>
+        <v>-497.80599999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>51638.780008</v>
+        <v>51638.780008000002</v>
       </c>
       <c r="BT11" s="1">
         <v>14.344106</v>
       </c>
       <c r="BU11" s="1">
-        <v>1336.400000</v>
+        <v>1336.4</v>
       </c>
       <c r="BV11" s="1">
-        <v>-699.698000</v>
+        <v>-699.69799999999998</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>51649.567327</v>
+        <v>51649.567326999997</v>
       </c>
       <c r="BY11" s="1">
         <v>14.347102</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1472.740000</v>
+        <v>1472.74</v>
       </c>
       <c r="CA11" s="1">
-        <v>-914.053000</v>
+        <v>-914.053</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>51661.617167</v>
+        <v>51661.617166999997</v>
       </c>
       <c r="CD11" s="1">
-        <v>14.350449</v>
+        <v>14.350448999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1830.780000</v>
+        <v>1830.78</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1423.740000</v>
+        <v>-1423.74</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>51490.805408</v>
       </c>
       <c r="B12" s="1">
-        <v>14.303002</v>
+        <v>14.303001999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>896.437000</v>
+        <v>896.43700000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-180.950000</v>
+        <v>-180.95</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>51501.227351</v>
+        <v>51501.227351000001</v>
       </c>
       <c r="G12" s="1">
-        <v>14.305896</v>
+        <v>14.305896000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>912.462000</v>
+        <v>912.46199999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-155.896000</v>
+        <v>-155.89599999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>51511.742005</v>
       </c>
       <c r="L12" s="1">
-        <v>14.308817</v>
+        <v>14.308816999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>936.056000</v>
+        <v>936.05600000000004</v>
       </c>
       <c r="N12" s="1">
-        <v>-114.601000</v>
+        <v>-114.601</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>51522.265623</v>
+        <v>51522.265622999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>14.311740</v>
+        <v>14.31174</v>
       </c>
       <c r="R12" s="1">
-        <v>943.493000</v>
+        <v>943.49300000000005</v>
       </c>
       <c r="S12" s="1">
-        <v>-100.249000</v>
+        <v>-100.249</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>51533.118617</v>
@@ -3111,43 +3527,43 @@
         <v>14.314755</v>
       </c>
       <c r="W12" s="1">
-        <v>951.228000</v>
+        <v>951.22799999999995</v>
       </c>
       <c r="X12" s="1">
-        <v>-86.955400</v>
+        <v>-86.955399999999997</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>51543.315377</v>
+        <v>51543.315376999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>14.317588</v>
+        <v>14.317588000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>959.595000</v>
+        <v>959.59500000000003</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.582600</v>
+        <v>-76.582599999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>51553.538913</v>
+        <v>51553.538912999997</v>
       </c>
       <c r="AF12" s="1">
         <v>14.320427</v>
       </c>
       <c r="AG12" s="1">
-        <v>964.782000</v>
+        <v>964.78200000000004</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.802800</v>
+        <v>-74.802800000000005</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>51563.388928</v>
@@ -3156,255 +3572,255 @@
         <v>14.323164</v>
       </c>
       <c r="AL12" s="1">
-        <v>972.475000</v>
+        <v>972.47500000000002</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.753800</v>
+        <v>-79.753799999999998</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>51573.784082</v>
+        <v>51573.784081999998</v>
       </c>
       <c r="AP12" s="1">
         <v>14.326051</v>
       </c>
       <c r="AQ12" s="1">
-        <v>980.774000</v>
+        <v>980.774</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.492100</v>
+        <v>-91.492099999999994</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>51584.841924</v>
       </c>
       <c r="AU12" s="1">
-        <v>14.329123</v>
+        <v>14.329122999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>990.817000</v>
+        <v>990.81700000000001</v>
       </c>
       <c r="AW12" s="1">
-        <v>-109.336000</v>
+        <v>-109.336</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>51595.950294</v>
+        <v>51595.950294000002</v>
       </c>
       <c r="AZ12" s="1">
         <v>14.332208</v>
       </c>
       <c r="BA12" s="1">
-        <v>999.143000</v>
+        <v>999.14300000000003</v>
       </c>
       <c r="BB12" s="1">
-        <v>-125.037000</v>
+        <v>-125.03700000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>51606.599634</v>
+        <v>51606.599633999998</v>
       </c>
       <c r="BE12" s="1">
         <v>14.335167</v>
       </c>
       <c r="BF12" s="1">
-        <v>1038.150000</v>
+        <v>1038.1500000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-197.199000</v>
+        <v>-197.19900000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>51617.329386</v>
+        <v>51617.329385999998</v>
       </c>
       <c r="BJ12" s="1">
-        <v>14.338147</v>
+        <v>14.338146999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1105.270000</v>
+        <v>1105.27</v>
       </c>
       <c r="BL12" s="1">
-        <v>-314.016000</v>
+        <v>-314.01600000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>51628.316763</v>
+        <v>51628.316763000003</v>
       </c>
       <c r="BO12" s="1">
         <v>14.341199</v>
       </c>
       <c r="BP12" s="1">
-        <v>1214.060000</v>
+        <v>1214.06</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-497.846000</v>
+        <v>-497.846</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>51639.210897</v>
+        <v>51639.210896999997</v>
       </c>
       <c r="BT12" s="1">
         <v>14.344225</v>
       </c>
       <c r="BU12" s="1">
-        <v>1336.420000</v>
+        <v>1336.42</v>
       </c>
       <c r="BV12" s="1">
-        <v>-699.673000</v>
+        <v>-699.673</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>51649.991406</v>
+        <v>51649.991406000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>14.347220</v>
+        <v>14.34722</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1472.670000</v>
+        <v>1472.67</v>
       </c>
       <c r="CA12" s="1">
-        <v>-913.994000</v>
+        <v>-913.99400000000003</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>51662.170670</v>
+        <v>51662.17067</v>
       </c>
       <c r="CD12" s="1">
         <v>14.350603</v>
       </c>
       <c r="CE12" s="1">
-        <v>1830.130000</v>
+        <v>1830.13</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1424.390000</v>
+        <v>-1424.39</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>51491.148112</v>
+        <v>51491.148112000003</v>
       </c>
       <c r="B13" s="1">
-        <v>14.303097</v>
+        <v>14.303096999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>896.371000</v>
+        <v>896.37099999999998</v>
       </c>
       <c r="D13" s="1">
-        <v>-181.090000</v>
+        <v>-181.09</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>51501.570085</v>
+        <v>51501.570084999999</v>
       </c>
       <c r="G13" s="1">
         <v>14.305992</v>
       </c>
       <c r="H13" s="1">
-        <v>912.443000</v>
+        <v>912.44299999999998</v>
       </c>
       <c r="I13" s="1">
-        <v>-155.622000</v>
+        <v>-155.62200000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>51512.396229</v>
+        <v>51512.396228999998</v>
       </c>
       <c r="L13" s="1">
         <v>14.308999</v>
       </c>
       <c r="M13" s="1">
-        <v>935.862000</v>
+        <v>935.86199999999997</v>
       </c>
       <c r="N13" s="1">
-        <v>-114.369000</v>
+        <v>-114.369</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>51522.923827</v>
+        <v>51522.923826999999</v>
       </c>
       <c r="Q13" s="1">
         <v>14.311923</v>
       </c>
       <c r="R13" s="1">
-        <v>943.490000</v>
+        <v>943.49</v>
       </c>
       <c r="S13" s="1">
-        <v>-100.124000</v>
+        <v>-100.124</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>51533.496568</v>
+        <v>51533.496568000002</v>
       </c>
       <c r="V13" s="1">
-        <v>14.314860</v>
+        <v>14.314859999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>951.197000</v>
+        <v>951.197</v>
       </c>
       <c r="X13" s="1">
-        <v>-86.929200</v>
+        <v>-86.929199999999994</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>51543.703706</v>
       </c>
       <c r="AA13" s="1">
-        <v>14.317695</v>
+        <v>14.317695000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>959.627000</v>
+        <v>959.62699999999995</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.576600</v>
+        <v>-76.576599999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>51553.882606</v>
+        <v>51553.882605999999</v>
       </c>
       <c r="AF13" s="1">
         <v>14.320523</v>
       </c>
       <c r="AG13" s="1">
-        <v>964.795000</v>
+        <v>964.79499999999996</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.791200</v>
+        <v>-74.791200000000003</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>51563.738609</v>
@@ -3413,225 +3829,225 @@
         <v>14.323261</v>
       </c>
       <c r="AL13" s="1">
-        <v>972.478000</v>
+        <v>972.47799999999995</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.768800</v>
+        <v>-79.768799999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>51574.143683</v>
+        <v>51574.143683000002</v>
       </c>
       <c r="AP13" s="1">
-        <v>14.326151</v>
+        <v>14.326150999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>980.803000</v>
+        <v>980.803</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.530100</v>
+        <v>-91.530100000000004</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>51585.267461</v>
+        <v>51585.267461000003</v>
       </c>
       <c r="AU13" s="1">
         <v>14.329241</v>
       </c>
       <c r="AV13" s="1">
-        <v>990.791000</v>
+        <v>990.79100000000005</v>
       </c>
       <c r="AW13" s="1">
-        <v>-109.321000</v>
+        <v>-109.321</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>51596.362965</v>
       </c>
       <c r="AZ13" s="1">
-        <v>14.332323</v>
+        <v>14.332323000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>999.138000</v>
+        <v>999.13800000000003</v>
       </c>
       <c r="BB13" s="1">
-        <v>-125.011000</v>
+        <v>-125.011</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>51606.899497</v>
+        <v>51606.899496999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>14.335250</v>
+        <v>14.33525</v>
       </c>
       <c r="BF13" s="1">
-        <v>1038.170000</v>
+        <v>1038.17</v>
       </c>
       <c r="BG13" s="1">
-        <v>-197.185000</v>
+        <v>-197.185</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>51617.718714</v>
+        <v>51617.718714000002</v>
       </c>
       <c r="BJ13" s="1">
         <v>14.338255</v>
       </c>
       <c r="BK13" s="1">
-        <v>1105.290000</v>
+        <v>1105.29</v>
       </c>
       <c r="BL13" s="1">
-        <v>-314.043000</v>
+        <v>-314.04300000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>51628.737835</v>
       </c>
       <c r="BO13" s="1">
-        <v>14.341316</v>
+        <v>14.341316000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1214.040000</v>
+        <v>1214.04</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-497.836000</v>
+        <v>-497.83600000000001</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>51639.638443</v>
+        <v>51639.638443000003</v>
       </c>
       <c r="BT13" s="1">
         <v>14.344344</v>
       </c>
       <c r="BU13" s="1">
-        <v>1336.420000</v>
+        <v>1336.42</v>
       </c>
       <c r="BV13" s="1">
-        <v>-699.660000</v>
+        <v>-699.66</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>51650.437805</v>
+        <v>51650.437805000001</v>
       </c>
       <c r="BY13" s="1">
         <v>14.347344</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1472.890000</v>
+        <v>1472.89</v>
       </c>
       <c r="CA13" s="1">
-        <v>-914.090000</v>
+        <v>-914.09</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>51662.701390</v>
+        <v>51662.701390000002</v>
       </c>
       <c r="CD13" s="1">
-        <v>14.350750</v>
+        <v>14.35075</v>
       </c>
       <c r="CE13" s="1">
-        <v>1830.910000</v>
+        <v>1830.91</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1423.360000</v>
+        <v>-1423.36</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>51491.491345</v>
+        <v>51491.491345000002</v>
       </c>
       <c r="B14" s="1">
-        <v>14.303192</v>
+        <v>14.303191999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>896.339000</v>
+        <v>896.33900000000006</v>
       </c>
       <c r="D14" s="1">
-        <v>-180.938000</v>
+        <v>-180.93799999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>51502.219350</v>
+        <v>51502.219349999999</v>
       </c>
       <c r="G14" s="1">
         <v>14.306172</v>
       </c>
       <c r="H14" s="1">
-        <v>912.636000</v>
+        <v>912.63599999999997</v>
       </c>
       <c r="I14" s="1">
-        <v>-155.985000</v>
+        <v>-155.98500000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>51512.781651</v>
+        <v>51512.781650999998</v>
       </c>
       <c r="L14" s="1">
         <v>14.309106</v>
       </c>
       <c r="M14" s="1">
-        <v>935.931000</v>
+        <v>935.93100000000004</v>
       </c>
       <c r="N14" s="1">
-        <v>-114.489000</v>
+        <v>-114.489</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>51523.321605</v>
+        <v>51523.321604999997</v>
       </c>
       <c r="Q14" s="1">
-        <v>14.312034</v>
+        <v>14.312034000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>943.524000</v>
+        <v>943.524</v>
       </c>
       <c r="S14" s="1">
-        <v>-100.200000</v>
+        <v>-100.2</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>51533.840265</v>
+        <v>51533.840264999999</v>
       </c>
       <c r="V14" s="1">
         <v>14.314956</v>
       </c>
       <c r="W14" s="1">
-        <v>951.153000</v>
+        <v>951.15300000000002</v>
       </c>
       <c r="X14" s="1">
-        <v>-87.008500</v>
+        <v>-87.008499999999998</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>51544.053386</v>
@@ -3640,118 +4056,118 @@
         <v>14.317793</v>
       </c>
       <c r="AB14" s="1">
-        <v>959.574000</v>
+        <v>959.57399999999996</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.645100</v>
+        <v>-76.645099999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>51554.226334</v>
+        <v>51554.226333999999</v>
       </c>
       <c r="AF14" s="1">
         <v>14.320618</v>
       </c>
       <c r="AG14" s="1">
-        <v>964.788000</v>
+        <v>964.78800000000001</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.736400</v>
+        <v>-74.736400000000003</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>51564.163681</v>
+        <v>51564.163680999998</v>
       </c>
       <c r="AK14" s="1">
-        <v>14.323379</v>
+        <v>14.323378999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>972.475000</v>
+        <v>972.47500000000002</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.755200</v>
+        <v>-79.755200000000002</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>51574.569747</v>
+        <v>51574.569747000001</v>
       </c>
       <c r="AP14" s="1">
         <v>14.326269</v>
       </c>
       <c r="AQ14" s="1">
-        <v>980.808000</v>
+        <v>980.80799999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.496500</v>
+        <v>-91.496499999999997</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>51585.570020</v>
+        <v>51585.570019999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>14.329325</v>
+        <v>14.329325000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>990.813000</v>
+        <v>990.81299999999999</v>
       </c>
       <c r="AW14" s="1">
-        <v>-109.312000</v>
+        <v>-109.312</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>51596.665066</v>
+        <v>51596.665066000001</v>
       </c>
       <c r="AZ14" s="1">
         <v>14.332407</v>
       </c>
       <c r="BA14" s="1">
-        <v>999.145000</v>
+        <v>999.14499999999998</v>
       </c>
       <c r="BB14" s="1">
-        <v>-125.034000</v>
+        <v>-125.03400000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>51607.261062</v>
+        <v>51607.261061999998</v>
       </c>
       <c r="BE14" s="1">
-        <v>14.335350</v>
+        <v>14.33535</v>
       </c>
       <c r="BF14" s="1">
-        <v>1038.140000</v>
+        <v>1038.1400000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-197.206000</v>
+        <v>-197.20599999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>51618.093688</v>
+        <v>51618.093688000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>14.338359</v>
+        <v>14.338359000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1105.310000</v>
+        <v>1105.31</v>
       </c>
       <c r="BL14" s="1">
-        <v>-314.040000</v>
+        <v>-314.04000000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>51629.134673</v>
@@ -3760,542 +4176,542 @@
         <v>14.341426</v>
       </c>
       <c r="BP14" s="1">
-        <v>1214.040000</v>
+        <v>1214.04</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-497.882000</v>
+        <v>-497.88200000000001</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>51640.065963</v>
+        <v>51640.065963000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>14.344463</v>
+        <v>14.344462999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1336.460000</v>
+        <v>1336.46</v>
       </c>
       <c r="BV14" s="1">
-        <v>-699.641000</v>
+        <v>-699.64099999999996</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>51650.865887</v>
       </c>
       <c r="BY14" s="1">
-        <v>14.347463</v>
+        <v>14.347462999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1472.690000</v>
+        <v>1472.69</v>
       </c>
       <c r="CA14" s="1">
-        <v>-914.021000</v>
+        <v>-914.02099999999996</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>51663.219213</v>
+        <v>51663.219212999997</v>
       </c>
       <c r="CD14" s="1">
         <v>14.350894</v>
       </c>
       <c r="CE14" s="1">
-        <v>1830.230000</v>
+        <v>1830.23</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1422.840000</v>
+        <v>-1422.84</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>51492.152014</v>
+        <v>51492.152013999999</v>
       </c>
       <c r="B15" s="1">
         <v>14.303376</v>
       </c>
       <c r="C15" s="1">
-        <v>896.255000</v>
+        <v>896.255</v>
       </c>
       <c r="D15" s="1">
-        <v>-181.031000</v>
+        <v>-181.03100000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>51502.607186</v>
+        <v>51502.607186000001</v>
       </c>
       <c r="G15" s="1">
-        <v>14.306280</v>
+        <v>14.306279999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>912.587000</v>
+        <v>912.58699999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-155.518000</v>
+        <v>-155.518</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>51513.128356</v>
+        <v>51513.128356000001</v>
       </c>
       <c r="L15" s="1">
-        <v>14.309202</v>
+        <v>14.309202000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>935.905000</v>
+        <v>935.90499999999997</v>
       </c>
       <c r="N15" s="1">
-        <v>-114.386000</v>
+        <v>-114.386</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>51523.662853</v>
+        <v>51523.662853000002</v>
       </c>
       <c r="Q15" s="1">
-        <v>14.312129</v>
+        <v>14.312129000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>943.456000</v>
+        <v>943.45600000000002</v>
       </c>
       <c r="S15" s="1">
-        <v>-100.275000</v>
+        <v>-100.27500000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>51534.189944</v>
+        <v>51534.189943999998</v>
       </c>
       <c r="V15" s="1">
-        <v>14.315053</v>
+        <v>14.315053000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>951.214000</v>
+        <v>951.21400000000006</v>
       </c>
       <c r="X15" s="1">
-        <v>-86.980600</v>
+        <v>-86.980599999999995</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>51544.404553</v>
       </c>
       <c r="AA15" s="1">
-        <v>14.317890</v>
+        <v>14.31789</v>
       </c>
       <c r="AB15" s="1">
-        <v>959.522000</v>
+        <v>959.52200000000005</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.600600</v>
+        <v>-76.6006</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>51554.649452</v>
+        <v>51554.649451999998</v>
       </c>
       <c r="AF15" s="1">
         <v>14.320736</v>
       </c>
       <c r="AG15" s="1">
-        <v>964.798000</v>
+        <v>964.798</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.816600</v>
+        <v>-74.816599999999994</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>51564.433539</v>
+        <v>51564.433538999998</v>
       </c>
       <c r="AK15" s="1">
         <v>14.323454</v>
       </c>
       <c r="AL15" s="1">
-        <v>972.484000</v>
+        <v>972.48400000000004</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.764700</v>
+        <v>-79.764700000000005</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>51574.863409</v>
+        <v>51574.863408999998</v>
       </c>
       <c r="AP15" s="1">
-        <v>14.326351</v>
+        <v>14.326351000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>980.811000</v>
+        <v>980.81100000000004</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.514100</v>
+        <v>-91.514099999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>51585.936563</v>
+        <v>51585.936563000003</v>
       </c>
       <c r="AU15" s="1">
-        <v>14.329427</v>
+        <v>14.329427000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>990.813000</v>
+        <v>990.81299999999999</v>
       </c>
       <c r="AW15" s="1">
-        <v>-109.306000</v>
+        <v>-109.306</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>51597.024660</v>
+        <v>51597.024660000003</v>
       </c>
       <c r="AZ15" s="1">
         <v>14.332507</v>
       </c>
       <c r="BA15" s="1">
-        <v>999.164000</v>
+        <v>999.16399999999999</v>
       </c>
       <c r="BB15" s="1">
-        <v>-125.033000</v>
+        <v>-125.033</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>51607.625167</v>
+        <v>51607.625166999998</v>
       </c>
       <c r="BE15" s="1">
-        <v>14.335451</v>
+        <v>14.335451000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1038.170000</v>
+        <v>1038.17</v>
       </c>
       <c r="BG15" s="1">
-        <v>-197.205000</v>
+        <v>-197.20500000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>51618.841687</v>
       </c>
       <c r="BJ15" s="1">
-        <v>14.338567</v>
+        <v>14.338566999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1105.270000</v>
+        <v>1105.27</v>
       </c>
       <c r="BL15" s="1">
-        <v>-314.007000</v>
+        <v>-314.00700000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>51629.562218</v>
+        <v>51629.562217999999</v>
       </c>
       <c r="BO15" s="1">
         <v>14.341545</v>
       </c>
       <c r="BP15" s="1">
-        <v>1214.060000</v>
+        <v>1214.06</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-497.842000</v>
+        <v>-497.84199999999998</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>51640.477178</v>
+        <v>51640.477178000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>14.344577</v>
+        <v>14.344576999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1336.490000</v>
+        <v>1336.49</v>
       </c>
       <c r="BV15" s="1">
-        <v>-699.603000</v>
+        <v>-699.60299999999995</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>51651.289436</v>
+        <v>51651.289435999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>14.347580</v>
+        <v>14.347580000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1472.800000</v>
+        <v>1472.8</v>
       </c>
       <c r="CA15" s="1">
-        <v>-914.225000</v>
+        <v>-914.22500000000002</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>51663.735548</v>
+        <v>51663.735547999997</v>
       </c>
       <c r="CD15" s="1">
-        <v>14.351038</v>
+        <v>14.351038000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1829.410000</v>
+        <v>1829.41</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1423.810000</v>
+        <v>-1423.81</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>51492.517568</v>
+        <v>51492.517568000003</v>
       </c>
       <c r="B16" s="1">
-        <v>14.303477</v>
+        <v>14.303477000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>896.401000</v>
+        <v>896.40099999999995</v>
       </c>
       <c r="D16" s="1">
-        <v>-180.928000</v>
+        <v>-180.928</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>51502.950921</v>
+        <v>51502.950921000003</v>
       </c>
       <c r="G16" s="1">
-        <v>14.306375</v>
+        <v>14.306374999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>912.312000</v>
+        <v>912.31200000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-155.881000</v>
+        <v>-155.881</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>51513.476018</v>
+        <v>51513.476018000001</v>
       </c>
       <c r="L16" s="1">
-        <v>14.309299</v>
+        <v>14.309298999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>935.877000</v>
+        <v>935.87699999999995</v>
       </c>
       <c r="N16" s="1">
-        <v>-114.340000</v>
+        <v>-114.34</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>51524.008069</v>
+        <v>51524.008069000003</v>
       </c>
       <c r="Q16" s="1">
-        <v>14.312224</v>
+        <v>14.312224000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>943.464000</v>
+        <v>943.46400000000006</v>
       </c>
       <c r="S16" s="1">
-        <v>-100.265000</v>
+        <v>-100.265</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>51534.614059</v>
       </c>
       <c r="V16" s="1">
-        <v>14.315171</v>
+        <v>14.315170999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>951.189000</v>
+        <v>951.18899999999996</v>
       </c>
       <c r="X16" s="1">
-        <v>-86.962100</v>
+        <v>-86.962100000000007</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>51544.824667</v>
+        <v>51544.824667000001</v>
       </c>
       <c r="AA16" s="1">
         <v>14.318007</v>
       </c>
       <c r="AB16" s="1">
-        <v>959.558000</v>
+        <v>959.55799999999999</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.564300</v>
+        <v>-76.564300000000003</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>51554.922747</v>
+        <v>51554.922746999997</v>
       </c>
       <c r="AF16" s="1">
         <v>14.320812</v>
       </c>
       <c r="AG16" s="1">
-        <v>964.790000</v>
+        <v>964.79</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.704200</v>
+        <v>-74.7042</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>51564.784672</v>
+        <v>51564.784672000002</v>
       </c>
       <c r="AK16" s="1">
         <v>14.323551</v>
       </c>
       <c r="AL16" s="1">
-        <v>972.475000</v>
+        <v>972.47500000000002</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.769900</v>
+        <v>-79.769900000000007</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>51575.226450</v>
+        <v>51575.226450000002</v>
       </c>
       <c r="AP16" s="1">
         <v>14.326452</v>
       </c>
       <c r="AQ16" s="1">
-        <v>980.807000</v>
+        <v>980.80700000000002</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.517200</v>
+        <v>-91.517200000000003</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>51586.300130</v>
+        <v>51586.300130000003</v>
       </c>
       <c r="AU16" s="1">
         <v>14.329528</v>
       </c>
       <c r="AV16" s="1">
-        <v>990.794000</v>
+        <v>990.79399999999998</v>
       </c>
       <c r="AW16" s="1">
-        <v>-109.285000</v>
+        <v>-109.285</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>51597.646613</v>
+        <v>51597.646612999997</v>
       </c>
       <c r="AZ16" s="1">
-        <v>14.332680</v>
+        <v>14.33268</v>
       </c>
       <c r="BA16" s="1">
-        <v>999.149000</v>
+        <v>999.149</v>
       </c>
       <c r="BB16" s="1">
-        <v>-125.051000</v>
+        <v>-125.051</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>51608.347337</v>
+        <v>51608.347336999999</v>
       </c>
       <c r="BE16" s="1">
         <v>14.335652</v>
       </c>
       <c r="BF16" s="1">
-        <v>1038.140000</v>
+        <v>1038.1400000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-197.210000</v>
+        <v>-197.21</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>51619.220600</v>
+        <v>51619.220600000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>14.338672</v>
+        <v>14.338672000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1105.280000</v>
+        <v>1105.28</v>
       </c>
       <c r="BL16" s="1">
-        <v>-314.035000</v>
+        <v>-314.03500000000003</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>51629.954025</v>
+        <v>51629.954024999999</v>
       </c>
       <c r="BO16" s="1">
         <v>14.341654</v>
       </c>
       <c r="BP16" s="1">
-        <v>1214.050000</v>
+        <v>1214.05</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-497.864000</v>
+        <v>-497.86399999999998</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>51640.908213</v>
+        <v>51640.908213000002</v>
       </c>
       <c r="BT16" s="1">
         <v>14.344697</v>
       </c>
       <c r="BU16" s="1">
-        <v>1336.440000</v>
+        <v>1336.44</v>
       </c>
       <c r="BV16" s="1">
-        <v>-699.560000</v>
+        <v>-699.56</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>51652.016075</v>
@@ -4304,255 +4720,255 @@
         <v>14.347782</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1472.740000</v>
+        <v>1472.74</v>
       </c>
       <c r="CA16" s="1">
-        <v>-914.059000</v>
+        <v>-914.05899999999997</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>51664.564859</v>
+        <v>51664.564858999998</v>
       </c>
       <c r="CD16" s="1">
-        <v>14.351268</v>
+        <v>14.351267999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>1830.590000</v>
+        <v>1830.59</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1424.140000</v>
+        <v>-1424.14</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>51492.860302</v>
+        <v>51492.860302000001</v>
       </c>
       <c r="B17" s="1">
-        <v>14.303572</v>
+        <v>14.303572000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>896.454000</v>
+        <v>896.45399999999995</v>
       </c>
       <c r="D17" s="1">
-        <v>-180.835000</v>
+        <v>-180.83500000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>51503.297628</v>
       </c>
       <c r="G17" s="1">
-        <v>14.306472</v>
+        <v>14.306471999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>912.194000</v>
+        <v>912.19399999999996</v>
       </c>
       <c r="I17" s="1">
-        <v>-155.656000</v>
+        <v>-155.65600000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>51513.898610</v>
+        <v>51513.898609999997</v>
       </c>
       <c r="L17" s="1">
-        <v>14.309416</v>
+        <v>14.309416000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>935.856000</v>
+        <v>935.85599999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-114.371000</v>
+        <v>-114.371</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>51524.429703</v>
+        <v>51524.429703000002</v>
       </c>
       <c r="Q17" s="1">
-        <v>14.312342</v>
+        <v>14.312341999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>943.472000</v>
+        <v>943.47199999999998</v>
       </c>
       <c r="S17" s="1">
-        <v>-100.182000</v>
+        <v>-100.182</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>51534.892278</v>
+        <v>51534.892277999999</v>
       </c>
       <c r="V17" s="1">
         <v>14.315248</v>
       </c>
       <c r="W17" s="1">
-        <v>951.287000</v>
+        <v>951.28700000000003</v>
       </c>
       <c r="X17" s="1">
-        <v>-87.025400</v>
+        <v>-87.025400000000005</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>51545.097501</v>
+        <v>51545.097500999997</v>
       </c>
       <c r="AA17" s="1">
         <v>14.318083</v>
       </c>
       <c r="AB17" s="1">
-        <v>959.556000</v>
+        <v>959.55600000000004</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.593700</v>
+        <v>-76.593699999999998</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>51555.266972</v>
+        <v>51555.266971999998</v>
       </c>
       <c r="AF17" s="1">
         <v>14.320907</v>
       </c>
       <c r="AG17" s="1">
-        <v>964.802000</v>
+        <v>964.80200000000002</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.735500</v>
+        <v>-74.735500000000002</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>51565.130390</v>
+        <v>51565.130389999998</v>
       </c>
       <c r="AK17" s="1">
-        <v>14.323647</v>
+        <v>14.323646999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>972.475000</v>
+        <v>972.47500000000002</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.776100</v>
+        <v>-79.7761</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>51575.585072</v>
+        <v>51575.585072000002</v>
       </c>
       <c r="AP17" s="1">
         <v>14.326551</v>
       </c>
       <c r="AQ17" s="1">
-        <v>980.809000</v>
+        <v>980.80899999999997</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.529300</v>
+        <v>-91.529300000000006</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>51587.027762</v>
+        <v>51587.027761999998</v>
       </c>
       <c r="AU17" s="1">
-        <v>14.329730</v>
+        <v>14.32973</v>
       </c>
       <c r="AV17" s="1">
-        <v>990.797000</v>
+        <v>990.79700000000003</v>
       </c>
       <c r="AW17" s="1">
-        <v>-109.325000</v>
+        <v>-109.325</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>51597.768627</v>
+        <v>51597.768626999998</v>
       </c>
       <c r="AZ17" s="1">
-        <v>14.332714</v>
+        <v>14.332713999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>999.125000</v>
+        <v>999.125</v>
       </c>
       <c r="BB17" s="1">
-        <v>-125.043000</v>
+        <v>-125.04300000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>51608.707398</v>
+        <v>51608.707397999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>14.335752</v>
+        <v>14.335751999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1038.170000</v>
+        <v>1038.17</v>
       </c>
       <c r="BG17" s="1">
-        <v>-197.198000</v>
+        <v>-197.19800000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>51619.595574</v>
+        <v>51619.595573999999</v>
       </c>
       <c r="BJ17" s="1">
         <v>14.338777</v>
       </c>
       <c r="BK17" s="1">
-        <v>1105.310000</v>
+        <v>1105.31</v>
       </c>
       <c r="BL17" s="1">
-        <v>-314.013000</v>
+        <v>-314.01299999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>51630.379096</v>
+        <v>51630.379095999997</v>
       </c>
       <c r="BO17" s="1">
-        <v>14.341772</v>
+        <v>14.341772000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1214.070000</v>
+        <v>1214.07</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-497.849000</v>
+        <v>-497.84899999999999</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>51641.628363</v>
+        <v>51641.628363000003</v>
       </c>
       <c r="BT17" s="1">
         <v>14.344897</v>
       </c>
       <c r="BU17" s="1">
-        <v>1336.460000</v>
+        <v>1336.46</v>
       </c>
       <c r="BV17" s="1">
-        <v>-699.589000</v>
+        <v>-699.58900000000006</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>51652.137595</v>
@@ -4561,1330 +4977,1330 @@
         <v>14.347816</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1472.670000</v>
+        <v>1472.67</v>
       </c>
       <c r="CA17" s="1">
-        <v>-914.163000</v>
+        <v>-914.16300000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>51664.771728</v>
       </c>
       <c r="CD17" s="1">
-        <v>14.351325</v>
+        <v>14.351324999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1830.780000</v>
+        <v>1830.78</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1422.950000</v>
+        <v>-1422.95</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>51493.203535</v>
+        <v>51493.203535000001</v>
       </c>
       <c r="B18" s="1">
         <v>14.303668</v>
       </c>
       <c r="C18" s="1">
-        <v>896.467000</v>
+        <v>896.46699999999998</v>
       </c>
       <c r="D18" s="1">
-        <v>-180.956000</v>
+        <v>-180.95599999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>51503.730128</v>
+        <v>51503.730128000003</v>
       </c>
       <c r="G18" s="1">
         <v>14.306592</v>
       </c>
       <c r="H18" s="1">
-        <v>912.245000</v>
+        <v>912.245</v>
       </c>
       <c r="I18" s="1">
-        <v>-155.501000</v>
+        <v>-155.501</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>51514.178885</v>
+        <v>51514.178885000001</v>
       </c>
       <c r="L18" s="1">
-        <v>14.309494</v>
+        <v>14.309494000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>935.897000</v>
+        <v>935.89700000000005</v>
       </c>
       <c r="N18" s="1">
-        <v>-114.322000</v>
+        <v>-114.322</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>51524.720859</v>
+        <v>51524.720859000001</v>
       </c>
       <c r="Q18" s="1">
         <v>14.312422</v>
       </c>
       <c r="R18" s="1">
-        <v>943.477000</v>
+        <v>943.47699999999998</v>
       </c>
       <c r="S18" s="1">
-        <v>-100.160000</v>
+        <v>-100.16</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>51535.238023</v>
+        <v>51535.238022999998</v>
       </c>
       <c r="V18" s="1">
         <v>14.315344</v>
       </c>
       <c r="W18" s="1">
-        <v>951.238000</v>
+        <v>951.23800000000006</v>
       </c>
       <c r="X18" s="1">
-        <v>-87.018400</v>
+        <v>-87.0184</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>51545.446184</v>
       </c>
       <c r="AA18" s="1">
-        <v>14.318179</v>
+        <v>14.318179000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>959.593000</v>
+        <v>959.59299999999996</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.568200</v>
+        <v>-76.568200000000004</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>51555.611195</v>
+        <v>51555.611194999998</v>
       </c>
       <c r="AF18" s="1">
-        <v>14.321003</v>
+        <v>14.321002999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>964.898000</v>
+        <v>964.89800000000002</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.853900</v>
+        <v>-74.853899999999996</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>51565.828781</v>
+        <v>51565.828780999997</v>
       </c>
       <c r="AK18" s="1">
         <v>14.323841</v>
       </c>
       <c r="AL18" s="1">
-        <v>972.441000</v>
+        <v>972.44100000000003</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.749100</v>
+        <v>-79.749099999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>51576.313216</v>
+        <v>51576.313216000002</v>
       </c>
       <c r="AP18" s="1">
-        <v>14.326754</v>
+        <v>14.326753999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>980.773000</v>
+        <v>980.77300000000002</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.512300</v>
+        <v>-91.512299999999996</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>51587.421120</v>
+        <v>51587.421119999999</v>
       </c>
       <c r="AU18" s="1">
         <v>14.329839</v>
       </c>
       <c r="AV18" s="1">
-        <v>990.796000</v>
+        <v>990.79600000000005</v>
       </c>
       <c r="AW18" s="1">
-        <v>-109.316000</v>
+        <v>-109.316</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>51598.102435</v>
+        <v>51598.102435000001</v>
       </c>
       <c r="AZ18" s="1">
         <v>14.332806</v>
       </c>
       <c r="BA18" s="1">
-        <v>999.143000</v>
+        <v>999.14300000000003</v>
       </c>
       <c r="BB18" s="1">
-        <v>-125.035000</v>
+        <v>-125.035</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>51609.066997</v>
+        <v>51609.066997000002</v>
       </c>
       <c r="BE18" s="1">
-        <v>14.335852</v>
+        <v>14.335851999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1038.140000</v>
+        <v>1038.1400000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-197.200000</v>
+        <v>-197.2</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>51620.281047</v>
+        <v>51620.281046999997</v>
       </c>
       <c r="BJ18" s="1">
         <v>14.338967</v>
       </c>
       <c r="BK18" s="1">
-        <v>1105.310000</v>
+        <v>1105.31</v>
       </c>
       <c r="BL18" s="1">
-        <v>-313.994000</v>
+        <v>-313.99400000000003</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>51631.081432</v>
+        <v>51631.081431999999</v>
       </c>
       <c r="BO18" s="1">
         <v>14.341967</v>
       </c>
       <c r="BP18" s="1">
-        <v>1214.010000</v>
+        <v>1214.01</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-497.881000</v>
+        <v>-497.88099999999997</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>51641.752857</v>
+        <v>51641.752856999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>14.344931</v>
+        <v>14.344931000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1336.470000</v>
+        <v>1336.47</v>
       </c>
       <c r="BV18" s="1">
-        <v>-699.542000</v>
+        <v>-699.54200000000003</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>51652.583003</v>
       </c>
       <c r="BY18" s="1">
-        <v>14.347940</v>
+        <v>14.347939999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1472.690000</v>
+        <v>1472.69</v>
       </c>
       <c r="CA18" s="1">
-        <v>-914.059000</v>
+        <v>-914.05899999999997</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>51665.290507</v>
+        <v>51665.290506999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>14.351470</v>
+        <v>14.351470000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1830.740000</v>
+        <v>1830.74</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1422.950000</v>
+        <v>-1422.95</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>51493.613725</v>
+        <v>51493.613725000003</v>
       </c>
       <c r="B19" s="1">
         <v>14.303782</v>
       </c>
       <c r="C19" s="1">
-        <v>896.470000</v>
+        <v>896.47</v>
       </c>
       <c r="D19" s="1">
-        <v>-180.824000</v>
+        <v>-180.82400000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>51504.011370</v>
+        <v>51504.01137</v>
       </c>
       <c r="G19" s="1">
-        <v>14.306670</v>
+        <v>14.30667</v>
       </c>
       <c r="H19" s="1">
-        <v>912.777000</v>
+        <v>912.77700000000004</v>
       </c>
       <c r="I19" s="1">
-        <v>-155.469000</v>
+        <v>-155.46899999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>51514.524068</v>
+        <v>51514.524067999999</v>
       </c>
       <c r="L19" s="1">
-        <v>14.309590</v>
+        <v>14.30959</v>
       </c>
       <c r="M19" s="1">
-        <v>936.036000</v>
+        <v>936.03599999999994</v>
       </c>
       <c r="N19" s="1">
-        <v>-114.320000</v>
+        <v>-114.32</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>51525.067027</v>
+        <v>51525.067026999997</v>
       </c>
       <c r="Q19" s="1">
         <v>14.312519</v>
       </c>
       <c r="R19" s="1">
-        <v>943.490000</v>
+        <v>943.49</v>
       </c>
       <c r="S19" s="1">
-        <v>-100.206000</v>
+        <v>-100.206</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>51535.580229</v>
+        <v>51535.580228999999</v>
       </c>
       <c r="V19" s="1">
         <v>14.315439</v>
       </c>
       <c r="W19" s="1">
-        <v>951.246000</v>
+        <v>951.24599999999998</v>
       </c>
       <c r="X19" s="1">
-        <v>-86.991900</v>
+        <v>-86.991900000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>51546.147993</v>
+        <v>51546.147992999999</v>
       </c>
       <c r="AA19" s="1">
         <v>14.318374</v>
       </c>
       <c r="AB19" s="1">
-        <v>959.586000</v>
+        <v>959.58600000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.571500</v>
+        <v>-76.5715</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>51556.296169</v>
+        <v>51556.296169000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>14.321193</v>
+        <v>14.321192999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>964.902000</v>
+        <v>964.90200000000004</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.782800</v>
+        <v>-74.782799999999995</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>51566.178463</v>
+        <v>51566.178462999997</v>
       </c>
       <c r="AK19" s="1">
         <v>14.323938</v>
       </c>
       <c r="AL19" s="1">
-        <v>972.479000</v>
+        <v>972.47900000000004</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.801300</v>
+        <v>-79.801299999999998</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>51576.691136</v>
+        <v>51576.691136000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>14.326859</v>
+        <v>14.326859000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>980.785000</v>
+        <v>980.78499999999997</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.520500</v>
+        <v>-91.520499999999998</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>51587.784658</v>
+        <v>51587.784657999997</v>
       </c>
       <c r="AU19" s="1">
-        <v>14.329940</v>
+        <v>14.329940000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>990.784000</v>
+        <v>990.78399999999999</v>
       </c>
       <c r="AW19" s="1">
-        <v>-109.323000</v>
+        <v>-109.32299999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>51598.772530</v>
+        <v>51598.772530000002</v>
       </c>
       <c r="AZ19" s="1">
-        <v>14.332992</v>
+        <v>14.332992000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>999.117000</v>
+        <v>999.11699999999996</v>
       </c>
       <c r="BB19" s="1">
-        <v>-125.035000</v>
+        <v>-125.035</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>51609.736597</v>
+        <v>51609.736597000003</v>
       </c>
       <c r="BE19" s="1">
         <v>14.336038</v>
       </c>
       <c r="BF19" s="1">
-        <v>1038.160000</v>
+        <v>1038.1600000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-197.208000</v>
+        <v>-197.208</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>51620.721990</v>
+        <v>51620.721989999998</v>
       </c>
       <c r="BJ19" s="1">
         <v>14.339089</v>
       </c>
       <c r="BK19" s="1">
-        <v>1105.250000</v>
+        <v>1105.25</v>
       </c>
       <c r="BL19" s="1">
-        <v>-314.035000</v>
+        <v>-314.03500000000003</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>51631.614630</v>
+        <v>51631.614629999996</v>
       </c>
       <c r="BO19" s="1">
         <v>14.342115</v>
       </c>
       <c r="BP19" s="1">
-        <v>1214.030000</v>
+        <v>1214.03</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-497.842000</v>
+        <v>-497.84199999999998</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>51642.190328</v>
+        <v>51642.190327999997</v>
       </c>
       <c r="BT19" s="1">
         <v>14.345053</v>
       </c>
       <c r="BU19" s="1">
-        <v>1336.510000</v>
+        <v>1336.51</v>
       </c>
       <c r="BV19" s="1">
-        <v>-699.541000</v>
+        <v>-699.54100000000005</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>51653.016541</v>
+        <v>51653.016540999997</v>
       </c>
       <c r="BY19" s="1">
-        <v>14.348060</v>
+        <v>14.34806</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1472.720000</v>
+        <v>1472.72</v>
       </c>
       <c r="CA19" s="1">
-        <v>-914.152000</v>
+        <v>-914.15200000000004</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>51665.851482</v>
+        <v>51665.851481999998</v>
       </c>
       <c r="CD19" s="1">
         <v>14.351625</v>
       </c>
       <c r="CE19" s="1">
-        <v>1830.780000</v>
+        <v>1830.78</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1424.050000</v>
+        <v>-1424.05</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>51493.903397</v>
+        <v>51493.903397000002</v>
       </c>
       <c r="B20" s="1">
-        <v>14.303862</v>
+        <v>14.303862000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>896.479000</v>
+        <v>896.47900000000004</v>
       </c>
       <c r="D20" s="1">
-        <v>-180.860000</v>
+        <v>-180.86</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>51504.357566</v>
+        <v>51504.357565999999</v>
       </c>
       <c r="G20" s="1">
         <v>14.306766</v>
       </c>
       <c r="H20" s="1">
-        <v>912.307000</v>
+        <v>912.30700000000002</v>
       </c>
       <c r="I20" s="1">
-        <v>-156.326000</v>
+        <v>-156.32599999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>51514.874240</v>
+        <v>51514.874239999997</v>
       </c>
       <c r="L20" s="1">
         <v>14.309687</v>
       </c>
       <c r="M20" s="1">
-        <v>935.914000</v>
+        <v>935.91399999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-114.335000</v>
+        <v>-114.33499999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>51525.414755</v>
+        <v>51525.414754999998</v>
       </c>
       <c r="Q20" s="1">
-        <v>14.312615</v>
+        <v>14.312614999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>943.457000</v>
+        <v>943.45699999999999</v>
       </c>
       <c r="S20" s="1">
-        <v>-100.222000</v>
+        <v>-100.22199999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>51536.266694</v>
+        <v>51536.266693999998</v>
       </c>
       <c r="V20" s="1">
-        <v>14.315630</v>
+        <v>14.315630000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>951.186000</v>
+        <v>951.18600000000004</v>
       </c>
       <c r="X20" s="1">
-        <v>-86.975900</v>
+        <v>-86.975899999999996</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>51546.498664</v>
+        <v>51546.498663999999</v>
       </c>
       <c r="AA20" s="1">
         <v>14.318472</v>
       </c>
       <c r="AB20" s="1">
-        <v>959.513000</v>
+        <v>959.51300000000003</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.617400</v>
+        <v>-76.617400000000004</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>51556.640397</v>
+        <v>51556.640397000003</v>
       </c>
       <c r="AF20" s="1">
         <v>14.321289</v>
       </c>
       <c r="AG20" s="1">
-        <v>964.835000</v>
+        <v>964.83500000000004</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.773100</v>
+        <v>-74.773099999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>51566.528140</v>
+        <v>51566.528140000002</v>
       </c>
       <c r="AK20" s="1">
         <v>14.324036</v>
       </c>
       <c r="AL20" s="1">
-        <v>972.476000</v>
+        <v>972.476</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.778100</v>
+        <v>-79.778099999999995</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>51577.052404</v>
+        <v>51577.052404000002</v>
       </c>
       <c r="AP20" s="1">
         <v>14.326959</v>
       </c>
       <c r="AQ20" s="1">
-        <v>980.791000</v>
+        <v>980.79100000000005</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.501800</v>
+        <v>-91.501800000000003</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>51588.453263</v>
+        <v>51588.453263000003</v>
       </c>
       <c r="AU20" s="1">
         <v>14.330126</v>
       </c>
       <c r="AV20" s="1">
-        <v>990.798000</v>
+        <v>990.798</v>
       </c>
       <c r="AW20" s="1">
-        <v>-109.302000</v>
+        <v>-109.30200000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>51599.210001</v>
+        <v>51599.210000999999</v>
       </c>
       <c r="AZ20" s="1">
         <v>14.333114</v>
       </c>
       <c r="BA20" s="1">
-        <v>999.153000</v>
+        <v>999.15300000000002</v>
       </c>
       <c r="BB20" s="1">
-        <v>-125.015000</v>
+        <v>-125.015</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>51610.179554</v>
+        <v>51610.179554000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>14.336161</v>
+        <v>14.336161000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1038.150000</v>
+        <v>1038.1500000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-197.209000</v>
+        <v>-197.209</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>51621.100472</v>
+        <v>51621.100471999998</v>
       </c>
       <c r="BJ20" s="1">
         <v>14.339195</v>
       </c>
       <c r="BK20" s="1">
-        <v>1105.270000</v>
+        <v>1105.27</v>
       </c>
       <c r="BL20" s="1">
-        <v>-314.044000</v>
+        <v>-314.04399999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>51632.020359</v>
+        <v>51632.020359000002</v>
       </c>
       <c r="BO20" s="1">
         <v>14.342228</v>
       </c>
       <c r="BP20" s="1">
-        <v>1214.050000</v>
+        <v>1214.05</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-497.827000</v>
+        <v>-497.827</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>51642.617880</v>
+        <v>51642.617879999998</v>
       </c>
       <c r="BT20" s="1">
         <v>14.345172</v>
       </c>
       <c r="BU20" s="1">
-        <v>1336.480000</v>
+        <v>1336.48</v>
       </c>
       <c r="BV20" s="1">
-        <v>-699.516000</v>
+        <v>-699.51599999999996</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>51653.436650</v>
+        <v>51653.436650000003</v>
       </c>
       <c r="BY20" s="1">
         <v>14.348177</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1472.720000</v>
+        <v>1472.72</v>
       </c>
       <c r="CA20" s="1">
-        <v>-914.057000</v>
+        <v>-914.05700000000002</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>51666.372280</v>
+        <v>51666.372280000003</v>
       </c>
       <c r="CD20" s="1">
-        <v>14.351770</v>
+        <v>14.35177</v>
       </c>
       <c r="CE20" s="1">
-        <v>1830.540000</v>
+        <v>1830.54</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1422.480000</v>
+        <v>-1422.48</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>51494.243680</v>
+        <v>51494.24368</v>
       </c>
       <c r="B21" s="1">
         <v>14.303957</v>
       </c>
       <c r="C21" s="1">
-        <v>896.521000</v>
+        <v>896.52099999999996</v>
       </c>
       <c r="D21" s="1">
-        <v>-180.850000</v>
+        <v>-180.85</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>51504.699806</v>
+        <v>51504.699805999997</v>
       </c>
       <c r="G21" s="1">
         <v>14.306861</v>
       </c>
       <c r="H21" s="1">
-        <v>912.374000</v>
+        <v>912.37400000000002</v>
       </c>
       <c r="I21" s="1">
-        <v>-155.409000</v>
+        <v>-155.40899999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>51515.563222</v>
+        <v>51515.563221999997</v>
       </c>
       <c r="L21" s="1">
         <v>14.309879</v>
       </c>
       <c r="M21" s="1">
-        <v>935.978000</v>
+        <v>935.97799999999995</v>
       </c>
       <c r="N21" s="1">
-        <v>-114.286000</v>
+        <v>-114.286</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>51526.113619</v>
+        <v>51526.113619000003</v>
       </c>
       <c r="Q21" s="1">
         <v>14.312809</v>
       </c>
       <c r="R21" s="1">
-        <v>943.443000</v>
+        <v>943.44299999999998</v>
       </c>
       <c r="S21" s="1">
-        <v>-100.195000</v>
+        <v>-100.19499999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>51536.610917</v>
+        <v>51536.610916999998</v>
       </c>
       <c r="V21" s="1">
         <v>14.315725</v>
       </c>
       <c r="W21" s="1">
-        <v>951.169000</v>
+        <v>951.16899999999998</v>
       </c>
       <c r="X21" s="1">
-        <v>-86.907400</v>
+        <v>-86.907399999999996</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>51546.847352</v>
+        <v>51546.847351999997</v>
       </c>
       <c r="AA21" s="1">
         <v>14.318569</v>
       </c>
       <c r="AB21" s="1">
-        <v>959.563000</v>
+        <v>959.56299999999999</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.593100</v>
+        <v>-76.593100000000007</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>51556.983630</v>
+        <v>51556.983630000002</v>
       </c>
       <c r="AF21" s="1">
         <v>14.321384</v>
       </c>
       <c r="AG21" s="1">
-        <v>964.734000</v>
+        <v>964.73400000000004</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.773300</v>
+        <v>-74.773300000000006</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>51567.185340</v>
+        <v>51567.185340000004</v>
       </c>
       <c r="AK21" s="1">
         <v>14.324218</v>
       </c>
       <c r="AL21" s="1">
-        <v>972.472000</v>
+        <v>972.47199999999998</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.759300</v>
+        <v>-79.759299999999996</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>51577.720861</v>
+        <v>51577.720861000002</v>
       </c>
       <c r="AP21" s="1">
         <v>14.327145</v>
       </c>
       <c r="AQ21" s="1">
-        <v>980.761000</v>
+        <v>980.76099999999997</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.493800</v>
+        <v>-91.493799999999993</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>51588.913090</v>
+        <v>51588.913090000002</v>
       </c>
       <c r="AU21" s="1">
         <v>14.330254</v>
       </c>
       <c r="AV21" s="1">
-        <v>990.785000</v>
+        <v>990.78499999999997</v>
       </c>
       <c r="AW21" s="1">
-        <v>-109.333000</v>
+        <v>-109.333</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>51599.570592</v>
+        <v>51599.570591999996</v>
       </c>
       <c r="AZ21" s="1">
         <v>14.333214</v>
       </c>
       <c r="BA21" s="1">
-        <v>999.153000</v>
+        <v>999.15300000000002</v>
       </c>
       <c r="BB21" s="1">
-        <v>-125.009000</v>
+        <v>-125.009</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>51610.539123</v>
+        <v>51610.539123000002</v>
       </c>
       <c r="BE21" s="1">
         <v>14.336261</v>
       </c>
       <c r="BF21" s="1">
-        <v>1038.150000</v>
+        <v>1038.1500000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-197.218000</v>
+        <v>-197.21799999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>51621.471444</v>
+        <v>51621.471444000003</v>
       </c>
       <c r="BJ21" s="1">
-        <v>14.339298</v>
+        <v>14.339297999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1105.290000</v>
+        <v>1105.29</v>
       </c>
       <c r="BL21" s="1">
-        <v>-314.006000</v>
+        <v>-314.00599999999997</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>51632.439017</v>
+        <v>51632.439016999997</v>
       </c>
       <c r="BO21" s="1">
-        <v>14.342344</v>
+        <v>14.342344000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1214.030000</v>
+        <v>1214.03</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-497.881000</v>
+        <v>-497.88099999999997</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>51643.043943</v>
+        <v>51643.043942999997</v>
       </c>
       <c r="BT21" s="1">
-        <v>14.345290</v>
+        <v>14.34529</v>
       </c>
       <c r="BU21" s="1">
-        <v>1336.530000</v>
+        <v>1336.53</v>
       </c>
       <c r="BV21" s="1">
-        <v>-699.461000</v>
+        <v>-699.46100000000001</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>51653.860201</v>
+        <v>51653.860201000003</v>
       </c>
       <c r="BY21" s="1">
         <v>14.348295</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1472.620000</v>
+        <v>1472.62</v>
       </c>
       <c r="CA21" s="1">
-        <v>-914.064000</v>
+        <v>-914.06399999999996</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>51666.891131</v>
+        <v>51666.891130999997</v>
       </c>
       <c r="CD21" s="1">
-        <v>14.351914</v>
+        <v>14.351914000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1831.070000</v>
+        <v>1831.07</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1423.210000</v>
+        <v>-1423.21</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>51494.585395</v>
+        <v>51494.585395000002</v>
       </c>
       <c r="B22" s="1">
-        <v>14.304051</v>
+        <v>14.304050999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>896.432000</v>
+        <v>896.43200000000002</v>
       </c>
       <c r="D22" s="1">
-        <v>-180.835000</v>
+        <v>-180.83500000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>51505.381837</v>
+        <v>51505.381837000001</v>
       </c>
       <c r="G22" s="1">
         <v>14.307051</v>
       </c>
       <c r="H22" s="1">
-        <v>912.713000</v>
+        <v>912.71299999999997</v>
       </c>
       <c r="I22" s="1">
-        <v>-155.529000</v>
+        <v>-155.529</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>51515.909919</v>
+        <v>51515.909918999998</v>
       </c>
       <c r="L22" s="1">
         <v>14.309975</v>
       </c>
       <c r="M22" s="1">
-        <v>935.834000</v>
+        <v>935.83399999999995</v>
       </c>
       <c r="N22" s="1">
-        <v>-114.300000</v>
+        <v>-114.3</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>51526.462306</v>
+        <v>51526.462306000001</v>
       </c>
       <c r="Q22" s="1">
         <v>14.312906</v>
       </c>
       <c r="R22" s="1">
-        <v>943.435000</v>
+        <v>943.43499999999995</v>
       </c>
       <c r="S22" s="1">
-        <v>-100.199000</v>
+        <v>-100.199</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>51536.953156</v>
+        <v>51536.953156000003</v>
       </c>
       <c r="V22" s="1">
-        <v>14.315820</v>
+        <v>14.31582</v>
       </c>
       <c r="W22" s="1">
-        <v>951.317000</v>
+        <v>951.31700000000001</v>
       </c>
       <c r="X22" s="1">
-        <v>-86.920400</v>
+        <v>-86.920400000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>51547.512486</v>
       </c>
       <c r="AA22" s="1">
-        <v>14.318753</v>
+        <v>14.318752999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>959.557000</v>
+        <v>959.55700000000002</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.595400</v>
+        <v>-76.595399999999998</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>51557.639800</v>
+        <v>51557.639799999997</v>
       </c>
       <c r="AF22" s="1">
         <v>14.321567</v>
       </c>
       <c r="AG22" s="1">
-        <v>964.722000</v>
+        <v>964.72199999999998</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.971300</v>
+        <v>-74.971299999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>51567.571195</v>
+        <v>51567.571194999997</v>
       </c>
       <c r="AK22" s="1">
         <v>14.324325</v>
       </c>
       <c r="AL22" s="1">
-        <v>972.464000</v>
+        <v>972.46400000000006</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.783000</v>
+        <v>-79.783000000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>51578.130557</v>
+        <v>51578.130556999997</v>
       </c>
       <c r="AP22" s="1">
         <v>14.327258</v>
       </c>
       <c r="AQ22" s="1">
-        <v>980.797000</v>
+        <v>980.79700000000003</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.487900</v>
+        <v>-91.487899999999996</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>51589.276126</v>
+        <v>51589.276125999997</v>
       </c>
       <c r="AU22" s="1">
         <v>14.330354</v>
       </c>
       <c r="AV22" s="1">
-        <v>990.782000</v>
+        <v>990.78200000000004</v>
       </c>
       <c r="AW22" s="1">
-        <v>-109.305000</v>
+        <v>-109.30500000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>51599.929696</v>
+        <v>51599.929695999999</v>
       </c>
       <c r="AZ22" s="1">
         <v>14.333314</v>
       </c>
       <c r="BA22" s="1">
-        <v>999.118000</v>
+        <v>999.11800000000005</v>
       </c>
       <c r="BB22" s="1">
-        <v>-125.056000</v>
+        <v>-125.056</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>51610.903682</v>
+        <v>51610.903681999996</v>
       </c>
       <c r="BE22" s="1">
-        <v>14.336362</v>
+        <v>14.336361999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1038.160000</v>
+        <v>1038.1600000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-197.203000</v>
+        <v>-197.203</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>51621.893540</v>
+        <v>51621.893539999997</v>
       </c>
       <c r="BJ22" s="1">
-        <v>14.339415</v>
+        <v>14.339415000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1105.270000</v>
+        <v>1105.27</v>
       </c>
       <c r="BL22" s="1">
-        <v>-314.006000</v>
+        <v>-314.00599999999997</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>51632.828838</v>
+        <v>51632.828838000001</v>
       </c>
       <c r="BO22" s="1">
         <v>14.342452</v>
       </c>
       <c r="BP22" s="1">
-        <v>1214.050000</v>
+        <v>1214.05</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-497.894000</v>
+        <v>-497.89400000000001</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>51643.458630</v>
+        <v>51643.458630000001</v>
       </c>
       <c r="BT22" s="1">
         <v>14.345405</v>
       </c>
       <c r="BU22" s="1">
-        <v>1336.510000</v>
+        <v>1336.51</v>
       </c>
       <c r="BV22" s="1">
-        <v>-699.439000</v>
+        <v>-699.43899999999996</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>51654.286264</v>
+        <v>51654.286264000002</v>
       </c>
       <c r="BY22" s="1">
-        <v>14.348413</v>
+        <v>14.348413000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1472.650000</v>
+        <v>1472.65</v>
       </c>
       <c r="CA22" s="1">
-        <v>-913.983000</v>
+        <v>-913.98299999999995</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>51667.443142</v>
+        <v>51667.443141999996</v>
       </c>
       <c r="CD22" s="1">
-        <v>14.352068</v>
+        <v>14.352067999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1830.920000</v>
+        <v>1830.92</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1423.710000</v>
+        <v>-1423.71</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>51495.268875</v>
+        <v>51495.268875000002</v>
       </c>
       <c r="B23" s="1">
-        <v>14.304241</v>
+        <v>14.304240999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>896.411000</v>
+        <v>896.41099999999994</v>
       </c>
       <c r="D23" s="1">
-        <v>-180.703000</v>
+        <v>-180.703</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>51505.734462</v>
@@ -5893,28 +6309,28 @@
         <v>14.307148</v>
       </c>
       <c r="H23" s="1">
-        <v>912.321000</v>
+        <v>912.32100000000003</v>
       </c>
       <c r="I23" s="1">
-        <v>-155.387000</v>
+        <v>-155.387</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>51516.257619</v>
+        <v>51516.257619000004</v>
       </c>
       <c r="L23" s="1">
         <v>14.310072</v>
       </c>
       <c r="M23" s="1">
-        <v>935.924000</v>
+        <v>935.92399999999998</v>
       </c>
       <c r="N23" s="1">
-        <v>-114.363000</v>
+        <v>-114.363</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>51526.810996</v>
@@ -5923,28 +6339,28 @@
         <v>14.313003</v>
       </c>
       <c r="R23" s="1">
-        <v>943.482000</v>
+        <v>943.48199999999997</v>
       </c>
       <c r="S23" s="1">
-        <v>-100.189000</v>
+        <v>-100.18899999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>51537.609859</v>
+        <v>51537.609858999997</v>
       </c>
       <c r="V23" s="1">
         <v>14.316003</v>
       </c>
       <c r="W23" s="1">
-        <v>951.184000</v>
+        <v>951.18399999999997</v>
       </c>
       <c r="X23" s="1">
-        <v>-86.924100</v>
+        <v>-86.924099999999996</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>51547.892452</v>
@@ -5953,181 +6369,181 @@
         <v>14.318859</v>
       </c>
       <c r="AB23" s="1">
-        <v>959.555000</v>
+        <v>959.55499999999995</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.571400</v>
+        <v>-76.571399999999997</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>51558.014311</v>
+        <v>51558.014310999999</v>
       </c>
       <c r="AF23" s="1">
         <v>14.321671</v>
       </c>
       <c r="AG23" s="1">
-        <v>964.952000</v>
+        <v>964.952</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.840800</v>
+        <v>-74.840800000000002</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>51567.923356</v>
+        <v>51567.923355999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>14.324423</v>
+        <v>14.324422999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>972.480000</v>
+        <v>972.48</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.786800</v>
+        <v>-79.786799999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>51578.517909</v>
+        <v>51578.517909000002</v>
       </c>
       <c r="AP23" s="1">
         <v>14.327366</v>
       </c>
       <c r="AQ23" s="1">
-        <v>980.797000</v>
+        <v>980.79700000000003</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.496900</v>
+        <v>-91.496899999999997</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>51589.642706</v>
+        <v>51589.642705999999</v>
       </c>
       <c r="AU23" s="1">
         <v>14.330456</v>
       </c>
       <c r="AV23" s="1">
-        <v>990.783000</v>
+        <v>990.78300000000002</v>
       </c>
       <c r="AW23" s="1">
-        <v>-109.295000</v>
+        <v>-109.295</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>51600.356291</v>
+        <v>51600.356290999996</v>
       </c>
       <c r="AZ23" s="1">
         <v>14.333432</v>
       </c>
       <c r="BA23" s="1">
-        <v>999.142000</v>
+        <v>999.14200000000005</v>
       </c>
       <c r="BB23" s="1">
-        <v>-125.038000</v>
+        <v>-125.038</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>51611.329280</v>
+        <v>51611.329279999998</v>
       </c>
       <c r="BE23" s="1">
-        <v>14.336480</v>
+        <v>14.33648</v>
       </c>
       <c r="BF23" s="1">
-        <v>1038.140000</v>
+        <v>1038.1400000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-197.219000</v>
+        <v>-197.21899999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>51622.251650</v>
+        <v>51622.251649999998</v>
       </c>
       <c r="BJ23" s="1">
-        <v>14.339514</v>
+        <v>14.339513999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1105.280000</v>
+        <v>1105.28</v>
       </c>
       <c r="BL23" s="1">
-        <v>-314.043000</v>
+        <v>-314.04300000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>51633.242997</v>
+        <v>51633.242997000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>14.342567</v>
+        <v>14.342567000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1214.020000</v>
+        <v>1214.02</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-497.846000</v>
+        <v>-497.846</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>51643.888666</v>
+        <v>51643.888665999999</v>
       </c>
       <c r="BT23" s="1">
         <v>14.345525</v>
       </c>
       <c r="BU23" s="1">
-        <v>1336.510000</v>
+        <v>1336.51</v>
       </c>
       <c r="BV23" s="1">
-        <v>-699.475000</v>
+        <v>-699.47500000000002</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>51654.703433</v>
+        <v>51654.703433000002</v>
       </c>
       <c r="BY23" s="1">
-        <v>14.348529</v>
+        <v>14.348528999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1472.690000</v>
+        <v>1472.69</v>
       </c>
       <c r="CA23" s="1">
-        <v>-914.130000</v>
+        <v>-914.13</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>51667.972406</v>
+        <v>51667.972406000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>14.352215</v>
+        <v>14.352214999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1830.610000</v>
+        <v>1830.61</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1422.610000</v>
+        <v>-1422.61</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>51495.612106</v>
       </c>
@@ -6135,769 +6551,770 @@
         <v>14.304337</v>
       </c>
       <c r="C24" s="1">
-        <v>896.241000</v>
+        <v>896.24099999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-180.684000</v>
+        <v>-180.684</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>51506.080701</v>
+        <v>51506.080700999999</v>
       </c>
       <c r="G24" s="1">
         <v>14.307245</v>
       </c>
       <c r="H24" s="1">
-        <v>912.291000</v>
+        <v>912.29100000000005</v>
       </c>
       <c r="I24" s="1">
-        <v>-155.674000</v>
+        <v>-155.67400000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>51516.913294</v>
+        <v>51516.913293999998</v>
       </c>
       <c r="L24" s="1">
         <v>14.310254</v>
       </c>
       <c r="M24" s="1">
-        <v>935.830000</v>
+        <v>935.83</v>
       </c>
       <c r="N24" s="1">
-        <v>-114.355000</v>
+        <v>-114.355</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>51527.473341</v>
+        <v>51527.473340999997</v>
       </c>
       <c r="Q24" s="1">
-        <v>14.313187</v>
+        <v>14.313186999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>943.489000</v>
+        <v>943.48900000000003</v>
       </c>
       <c r="S24" s="1">
-        <v>-100.152000</v>
+        <v>-100.152</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>51537.984338</v>
+        <v>51537.984338000002</v>
       </c>
       <c r="V24" s="1">
-        <v>14.316107</v>
+        <v>14.316107000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>951.277000</v>
+        <v>951.27700000000004</v>
       </c>
       <c r="X24" s="1">
-        <v>-87.034500</v>
+        <v>-87.034499999999994</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>51548.241604</v>
+        <v>51548.241604000003</v>
       </c>
       <c r="AA24" s="1">
         <v>14.318956</v>
       </c>
       <c r="AB24" s="1">
-        <v>959.602000</v>
+        <v>959.60199999999998</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.573000</v>
+        <v>-76.572999999999993</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>51558.356551</v>
+        <v>51558.356550999997</v>
       </c>
       <c r="AF24" s="1">
         <v>14.321766</v>
       </c>
       <c r="AG24" s="1">
-        <v>964.842000</v>
+        <v>964.84199999999998</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.761700</v>
+        <v>-74.761700000000005</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>51568.270591</v>
       </c>
       <c r="AK24" s="1">
-        <v>14.324520</v>
+        <v>14.32452</v>
       </c>
       <c r="AL24" s="1">
-        <v>972.489000</v>
+        <v>972.48900000000003</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.765700</v>
+        <v>-79.765699999999995</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>51578.876509</v>
+        <v>51578.876509000002</v>
       </c>
       <c r="AP24" s="1">
-        <v>14.327466</v>
+        <v>14.327465999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>980.802000</v>
+        <v>980.80200000000002</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.521200</v>
+        <v>-91.521199999999993</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>51590.070222</v>
+        <v>51590.070222000002</v>
       </c>
       <c r="AU24" s="1">
         <v>14.330575</v>
       </c>
       <c r="AV24" s="1">
-        <v>990.790000</v>
+        <v>990.79</v>
       </c>
       <c r="AW24" s="1">
-        <v>-109.307000</v>
+        <v>-109.307</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>51600.647440</v>
+        <v>51600.647440000001</v>
       </c>
       <c r="AZ24" s="1">
         <v>14.333513</v>
       </c>
       <c r="BA24" s="1">
-        <v>999.141000</v>
+        <v>999.14099999999996</v>
       </c>
       <c r="BB24" s="1">
-        <v>-125.033000</v>
+        <v>-125.033</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>51611.625394</v>
+        <v>51611.625394000002</v>
       </c>
       <c r="BE24" s="1">
         <v>14.336563</v>
       </c>
       <c r="BF24" s="1">
-        <v>1038.140000</v>
+        <v>1038.1400000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-197.225000</v>
+        <v>-197.22499999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>51622.626130</v>
+        <v>51622.626129999997</v>
       </c>
       <c r="BJ24" s="1">
         <v>14.339618</v>
       </c>
       <c r="BK24" s="1">
-        <v>1105.300000</v>
+        <v>1105.3</v>
       </c>
       <c r="BL24" s="1">
-        <v>-314.037000</v>
+        <v>-314.03699999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>51633.642308</v>
+        <v>51633.642308000002</v>
       </c>
       <c r="BO24" s="1">
-        <v>14.342678</v>
+        <v>14.342677999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1214.050000</v>
+        <v>1214.05</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-497.859000</v>
+        <v>-497.85899999999998</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>51644.300311</v>
+        <v>51644.300310999999</v>
       </c>
       <c r="BT24" s="1">
         <v>14.345639</v>
       </c>
       <c r="BU24" s="1">
-        <v>1336.460000</v>
+        <v>1336.46</v>
       </c>
       <c r="BV24" s="1">
-        <v>-699.465000</v>
+        <v>-699.46500000000003</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>51655.149831</v>
+        <v>51655.149831000002</v>
       </c>
       <c r="BY24" s="1">
-        <v>14.348653</v>
+        <v>14.348653000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1472.780000</v>
+        <v>1472.78</v>
       </c>
       <c r="CA24" s="1">
-        <v>-914.110000</v>
+        <v>-914.11</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>51668.490198</v>
       </c>
       <c r="CD24" s="1">
-        <v>14.352358</v>
+        <v>14.352358000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1830.860000</v>
+        <v>1830.86</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1423.020000</v>
+        <v>-1423.02</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>51496.261401</v>
+        <v>51496.261401000003</v>
       </c>
       <c r="B25" s="1">
-        <v>14.304517</v>
+        <v>14.304517000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>896.374000</v>
+        <v>896.37400000000002</v>
       </c>
       <c r="D25" s="1">
-        <v>-180.863000</v>
+        <v>-180.863</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>51506.730923</v>
+        <v>51506.730923000003</v>
       </c>
       <c r="G25" s="1">
         <v>14.307425</v>
       </c>
       <c r="H25" s="1">
-        <v>912.782000</v>
+        <v>912.78200000000004</v>
       </c>
       <c r="I25" s="1">
-        <v>-155.727000</v>
+        <v>-155.727</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>51517.293761</v>
+        <v>51517.293761000001</v>
       </c>
       <c r="L25" s="1">
         <v>14.310359</v>
       </c>
       <c r="M25" s="1">
-        <v>936.043000</v>
+        <v>936.04300000000001</v>
       </c>
       <c r="N25" s="1">
-        <v>-114.355000</v>
+        <v>-114.355</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>51527.857552</v>
+        <v>51527.857552000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>14.313294</v>
+        <v>14.313294000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>943.495000</v>
+        <v>943.495</v>
       </c>
       <c r="S25" s="1">
-        <v>-100.252000</v>
+        <v>-100.252</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>51538.328065</v>
+        <v>51538.328065000002</v>
       </c>
       <c r="V25" s="1">
-        <v>14.316202</v>
+        <v>14.316202000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>951.225000</v>
+        <v>951.22500000000002</v>
       </c>
       <c r="X25" s="1">
-        <v>-87.045900</v>
+        <v>-87.045900000000003</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>51548.590324</v>
+        <v>51548.590323999997</v>
       </c>
       <c r="AA25" s="1">
         <v>14.319053</v>
       </c>
       <c r="AB25" s="1">
-        <v>959.603000</v>
+        <v>959.60299999999995</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.547400</v>
+        <v>-76.547399999999996</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>51558.705735</v>
+        <v>51558.705735000003</v>
       </c>
       <c r="AF25" s="1">
         <v>14.321863</v>
       </c>
       <c r="AG25" s="1">
-        <v>964.834000</v>
+        <v>964.83399999999995</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.788000</v>
+        <v>-74.787999999999997</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>51568.679258</v>
+        <v>51568.679257999996</v>
       </c>
       <c r="AK25" s="1">
         <v>14.324633</v>
       </c>
       <c r="AL25" s="1">
-        <v>972.483000</v>
+        <v>972.48299999999995</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.787900</v>
+        <v>-79.787899999999993</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>51579.298640</v>
+        <v>51579.298640000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>14.327583</v>
+        <v>14.327583000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>980.774000</v>
+        <v>980.774</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.523600</v>
+        <v>-91.523600000000002</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>51590.371325</v>
       </c>
       <c r="AU25" s="1">
-        <v>14.330659</v>
+        <v>14.330659000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>990.789000</v>
+        <v>990.78899999999999</v>
       </c>
       <c r="AW25" s="1">
-        <v>-109.316000</v>
+        <v>-109.316</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>51601.007040</v>
+        <v>51601.007039999997</v>
       </c>
       <c r="AZ25" s="1">
         <v>14.333613</v>
       </c>
       <c r="BA25" s="1">
-        <v>999.139000</v>
+        <v>999.13900000000001</v>
       </c>
       <c r="BB25" s="1">
-        <v>-125.036000</v>
+        <v>-125.036</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>51611.986450</v>
+        <v>51611.986449999997</v>
       </c>
       <c r="BE25" s="1">
         <v>14.336663</v>
       </c>
       <c r="BF25" s="1">
-        <v>1038.150000</v>
+        <v>1038.1500000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-197.228000</v>
+        <v>-197.22800000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>51623.001142</v>
+        <v>51623.001142000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>14.339723</v>
+        <v>14.339722999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1105.270000</v>
+        <v>1105.27</v>
       </c>
       <c r="BL25" s="1">
-        <v>-314.025000</v>
+        <v>-314.02499999999998</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>51634.078259</v>
+        <v>51634.078259000002</v>
       </c>
       <c r="BO25" s="1">
-        <v>14.342800</v>
+        <v>14.3428</v>
       </c>
       <c r="BP25" s="1">
-        <v>1214.040000</v>
+        <v>1214.04</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-497.873000</v>
+        <v>-497.87299999999999</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>51644.731862</v>
+        <v>51644.731862000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>14.345759</v>
+        <v>14.345758999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1336.580000</v>
+        <v>1336.58</v>
       </c>
       <c r="BV25" s="1">
-        <v>-699.371000</v>
+        <v>-699.37099999999998</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>51655.569453</v>
+        <v>51655.569452999996</v>
       </c>
       <c r="BY25" s="1">
-        <v>14.348769</v>
+        <v>14.348769000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1472.710000</v>
+        <v>1472.71</v>
       </c>
       <c r="CA25" s="1">
-        <v>-914.085000</v>
+        <v>-914.08500000000004</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>51669.043237</v>
+        <v>51669.043236999998</v>
       </c>
       <c r="CD25" s="1">
-        <v>14.352512</v>
+        <v>14.352512000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>1831.170000</v>
+        <v>1831.17</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1423.810000</v>
+        <v>-1423.81</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>51496.632874</v>
+        <v>51496.632874000003</v>
       </c>
       <c r="B26" s="1">
-        <v>14.304620</v>
+        <v>14.30462</v>
       </c>
       <c r="C26" s="1">
-        <v>896.423000</v>
+        <v>896.423</v>
       </c>
       <c r="D26" s="1">
-        <v>-180.548000</v>
+        <v>-180.548</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>51507.112348</v>
+        <v>51507.112348000002</v>
       </c>
       <c r="G26" s="1">
-        <v>14.307531</v>
+        <v>14.307531000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>912.092000</v>
+        <v>912.09199999999998</v>
       </c>
       <c r="I26" s="1">
-        <v>-155.457000</v>
+        <v>-155.45699999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>51517.639965</v>
+        <v>51517.639965000002</v>
       </c>
       <c r="L26" s="1">
         <v>14.310456</v>
       </c>
       <c r="M26" s="1">
-        <v>935.854000</v>
+        <v>935.85400000000004</v>
       </c>
       <c r="N26" s="1">
-        <v>-114.372000</v>
+        <v>-114.372</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>51528.205215</v>
+        <v>51528.205215000002</v>
       </c>
       <c r="Q26" s="1">
-        <v>14.313390</v>
+        <v>14.31339</v>
       </c>
       <c r="R26" s="1">
-        <v>943.448000</v>
+        <v>943.44799999999998</v>
       </c>
       <c r="S26" s="1">
-        <v>-100.180000</v>
+        <v>-100.18</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>51538.676257</v>
+        <v>51538.676256999999</v>
       </c>
       <c r="V26" s="1">
-        <v>14.316299</v>
+        <v>14.316299000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>951.275000</v>
+        <v>951.27499999999998</v>
       </c>
       <c r="X26" s="1">
-        <v>-87.032700</v>
+        <v>-87.032700000000006</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>51549.005444</v>
+        <v>51549.005444000002</v>
       </c>
       <c r="AA26" s="1">
-        <v>14.319168</v>
+        <v>14.319167999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>959.643000</v>
+        <v>959.64300000000003</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.581700</v>
+        <v>-76.581699999999998</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>51559.130278</v>
+        <v>51559.130277999997</v>
       </c>
       <c r="AF26" s="1">
-        <v>14.321981</v>
+        <v>14.321980999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>964.863000</v>
+        <v>964.86300000000006</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.876200</v>
+        <v>-74.876199999999997</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>51568.971402</v>
+        <v>51568.971402000003</v>
       </c>
       <c r="AK26" s="1">
         <v>14.324714</v>
       </c>
       <c r="AL26" s="1">
-        <v>972.472000</v>
+        <v>972.47199999999998</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.773500</v>
+        <v>-79.773499999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>51579.605628</v>
+        <v>51579.605627999998</v>
       </c>
       <c r="AP26" s="1">
-        <v>14.327668</v>
+        <v>14.327667999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>980.762000</v>
+        <v>980.76199999999994</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.518900</v>
+        <v>-91.518900000000002</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>51590.736348</v>
+        <v>51590.736347999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>14.330760</v>
+        <v>14.33076</v>
       </c>
       <c r="AV26" s="1">
-        <v>990.811000</v>
+        <v>990.81100000000004</v>
       </c>
       <c r="AW26" s="1">
-        <v>-109.309000</v>
+        <v>-109.309</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>51601.362142</v>
+        <v>51601.362141999998</v>
       </c>
       <c r="AZ26" s="1">
         <v>14.333712</v>
       </c>
       <c r="BA26" s="1">
-        <v>999.122000</v>
+        <v>999.12199999999996</v>
       </c>
       <c r="BB26" s="1">
-        <v>-125.038000</v>
+        <v>-125.038</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>51612.349561</v>
+        <v>51612.349561000003</v>
       </c>
       <c r="BE26" s="1">
-        <v>14.336764</v>
+        <v>14.336764000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1038.160000</v>
+        <v>1038.1600000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-197.202000</v>
+        <v>-197.202</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>51623.752050</v>
+        <v>51623.752050000003</v>
       </c>
       <c r="BJ26" s="1">
         <v>14.339931</v>
       </c>
       <c r="BK26" s="1">
-        <v>1105.280000</v>
+        <v>1105.28</v>
       </c>
       <c r="BL26" s="1">
-        <v>-314.039000</v>
+        <v>-314.03899999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>51634.462162</v>
+        <v>51634.462162000003</v>
       </c>
       <c r="BO26" s="1">
-        <v>14.342906</v>
+        <v>14.342905999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1214.050000</v>
+        <v>1214.05</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-497.847000</v>
+        <v>-497.84699999999998</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>51645.160405</v>
+        <v>51645.160405000002</v>
       </c>
       <c r="BT26" s="1">
-        <v>14.345878</v>
+        <v>14.345878000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1336.520000</v>
+        <v>1336.52</v>
       </c>
       <c r="BV26" s="1">
-        <v>-699.431000</v>
+        <v>-699.43100000000004</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>51655.993495</v>
+        <v>51655.993495000002</v>
       </c>
       <c r="BY26" s="1">
         <v>14.348887</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1472.700000</v>
+        <v>1472.7</v>
       </c>
       <c r="CA26" s="1">
-        <v>-914.060000</v>
+        <v>-914.06</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>51669.874036</v>
+        <v>51669.874036000001</v>
       </c>
       <c r="CD26" s="1">
         <v>14.352743</v>
       </c>
       <c r="CE26" s="1">
-        <v>1830.320000</v>
+        <v>1830.32</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1422.670000</v>
+        <v>-1422.67</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>